--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.022537693153551</v>
+      </c>
+      <c r="D3">
         <v>1.563249921210121</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.022537693153551</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.278925130842034</v>
       </c>
-      <c r="F3">
-        <v>1.563249921210121</v>
-      </c>
       <c r="G3">
-        <v>1.155134804645928</v>
+        <v>1.162250653953762</v>
       </c>
       <c r="H3">
         <v>0.9489219504522401</v>
       </c>
       <c r="I3">
-        <v>1.162250653953762</v>
+        <v>1.155134804645928</v>
       </c>
       <c r="J3">
-        <v>1.022537693153551</v>
+        <v>1.563249921210121</v>
       </c>
       <c r="K3">
         <v>1.563249921210121</v>
@@ -676,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.453259462746687</v>
+      </c>
+      <c r="D4">
         <v>2.38256525955612</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.453259462746687</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.594093757720581</v>
       </c>
-      <c r="F4">
-        <v>2.38256525955612</v>
-      </c>
       <c r="G4">
-        <v>1.292827208771685</v>
+        <v>1.555935927545614</v>
       </c>
       <c r="H4">
         <v>0.8966400028767746</v>
       </c>
       <c r="I4">
-        <v>1.555935927545614</v>
+        <v>1.292827208771685</v>
       </c>
       <c r="J4">
-        <v>1.453259462746687</v>
+        <v>2.38256525955612</v>
       </c>
       <c r="K4">
         <v>2.38256525955612</v>
@@ -738,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>4.329996204023808</v>
+      </c>
+      <c r="D5">
         <v>5.874626228595446</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4.329996204023808</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3.064112085106716</v>
       </c>
-      <c r="F5">
-        <v>5.874626228595446</v>
-      </c>
       <c r="G5">
-        <v>2.872149357749743</v>
+        <v>3.620066863740216</v>
       </c>
       <c r="H5">
         <v>1.206673323736861</v>
       </c>
       <c r="I5">
-        <v>3.620066863740214</v>
+        <v>2.872149357749743</v>
       </c>
       <c r="J5">
-        <v>4.329996204023808</v>
+        <v>5.874626228595446</v>
       </c>
       <c r="K5">
         <v>5.874626228595446</v>
@@ -800,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.05394110642510112</v>
+      </c>
+      <c r="D6">
         <v>12.26507158053912</v>
       </c>
-      <c r="D6">
-        <v>0.05394110642510113</v>
-      </c>
       <c r="E6">
+        <v>0.05394110642510112</v>
+      </c>
+      <c r="F6">
         <v>8.419018954674451</v>
       </c>
-      <c r="F6">
-        <v>12.26507158053912</v>
-      </c>
       <c r="G6">
-        <v>3.104802674869862</v>
+        <v>1.769732564961791</v>
       </c>
       <c r="H6">
         <v>0.1650531904634235</v>
       </c>
       <c r="I6">
-        <v>1.769732564961791</v>
+        <v>3.104802674869862</v>
       </c>
       <c r="J6">
-        <v>0.05394110642510113</v>
+        <v>12.26507158053912</v>
       </c>
       <c r="K6">
         <v>12.26507158053912</v>
@@ -862,34 +874,34 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.058084202359294</v>
+      </c>
+      <c r="D7">
         <v>1.090377536068439</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1.058084202359294</v>
       </c>
-      <c r="E7">
-        <v>1.028073241892927</v>
-      </c>
       <c r="F7">
+        <v>1.028073241892926</v>
+      </c>
+      <c r="G7">
+        <v>0.9770032097807069</v>
+      </c>
+      <c r="H7">
+        <v>0.9763471619631469</v>
+      </c>
+      <c r="I7">
+        <v>1.163915367201085</v>
+      </c>
+      <c r="J7">
         <v>1.090377536068439</v>
-      </c>
-      <c r="G7">
-        <v>1.163915367201085</v>
-      </c>
-      <c r="H7">
-        <v>0.9763471619631471</v>
-      </c>
-      <c r="I7">
-        <v>0.9770032097807065</v>
-      </c>
-      <c r="J7">
-        <v>1.058084202359294</v>
       </c>
       <c r="K7">
         <v>1.090377536068439</v>
       </c>
       <c r="L7">
-        <v>1.028073241892927</v>
+        <v>1.028073241892926</v>
       </c>
       <c r="M7">
         <v>1.04307872212611</v>
@@ -907,10 +919,10 @@
         <v>1.05884499344022</v>
       </c>
       <c r="R7">
-        <v>1.066728129097275</v>
+        <v>1.066728129097274</v>
       </c>
       <c r="S7">
-        <v>1.066728129097275</v>
+        <v>1.066728129097274</v>
       </c>
       <c r="T7">
         <v>1.048966786544266</v>
@@ -924,58 +936,58 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>1.0478262894412</v>
+      </c>
+      <c r="D8">
         <v>1.113899009087697</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1.0478262894412</v>
       </c>
-      <c r="E8">
-        <v>1.041284570080264</v>
-      </c>
       <c r="F8">
+        <v>1.041284570080262</v>
+      </c>
+      <c r="G8">
+        <v>0.9776547460302408</v>
+      </c>
+      <c r="H8">
+        <v>0.9785109269382176</v>
+      </c>
+      <c r="I8">
+        <v>1.32474150945272</v>
+      </c>
+      <c r="J8">
         <v>1.113899009087697</v>
-      </c>
-      <c r="G8">
-        <v>1.324741509452689</v>
-      </c>
-      <c r="H8">
-        <v>0.9785109269382184</v>
-      </c>
-      <c r="I8">
-        <v>0.9776547460302413</v>
-      </c>
-      <c r="J8">
-        <v>1.0478262894412</v>
       </c>
       <c r="K8">
         <v>1.113899009087697</v>
       </c>
       <c r="L8">
-        <v>1.041284570080264</v>
+        <v>1.041284570080262</v>
       </c>
       <c r="M8">
-        <v>1.044555429760732</v>
+        <v>1.044555429760731</v>
       </c>
       <c r="N8">
-        <v>1.044555429760732</v>
+        <v>1.044555429760731</v>
       </c>
       <c r="O8">
-        <v>1.022540595486561</v>
+        <v>1.02254059548656</v>
       </c>
       <c r="P8">
-        <v>1.067669956203054</v>
+        <v>1.067669956203053</v>
       </c>
       <c r="Q8">
-        <v>1.067669956203054</v>
+        <v>1.067669956203053</v>
       </c>
       <c r="R8">
-        <v>1.079227219424215</v>
+        <v>1.079227219424214</v>
       </c>
       <c r="S8">
-        <v>1.079227219424215</v>
+        <v>1.079227219424214</v>
       </c>
       <c r="T8">
-        <v>1.080652841838385</v>
+        <v>1.08065284183839</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,34 +998,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.373463368956793</v>
+        <v>1.037225151812327</v>
       </c>
       <c r="D9">
+        <v>1.373463368956794</v>
+      </c>
+      <c r="E9">
         <v>1.037225151812327</v>
       </c>
-      <c r="E9">
-        <v>1.168734614948281</v>
-      </c>
       <c r="F9">
-        <v>1.373463368956793</v>
+        <v>1.16873461494828</v>
       </c>
       <c r="G9">
-        <v>1.279470034065652</v>
+        <v>0.9277673632646669</v>
       </c>
       <c r="H9">
         <v>0.9725353433454496</v>
       </c>
       <c r="I9">
-        <v>0.9277673632646668</v>
+        <v>1.279470034065652</v>
       </c>
       <c r="J9">
-        <v>1.037225151812327</v>
+        <v>1.373463368956794</v>
       </c>
       <c r="K9">
-        <v>1.373463368956793</v>
+        <v>1.373463368956794</v>
       </c>
       <c r="L9">
-        <v>1.168734614948281</v>
+        <v>1.16873461494828</v>
       </c>
       <c r="M9">
         <v>1.102979883380304</v>
@@ -1048,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.03674358039656</v>
+      </c>
+      <c r="D10">
         <v>1.64619708387329</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.03674358039656</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.268053026656183</v>
       </c>
-      <c r="F10">
-        <v>1.64619708387329</v>
-      </c>
       <c r="G10">
-        <v>1.935228769662612</v>
+        <v>1.13110992103183</v>
       </c>
       <c r="H10">
         <v>0.9536378273754985</v>
       </c>
       <c r="I10">
-        <v>1.13110992103183</v>
+        <v>1.935228769662612</v>
       </c>
       <c r="J10">
-        <v>1.03674358039656</v>
+        <v>1.64619708387329</v>
       </c>
       <c r="K10">
         <v>1.64619708387329</v>
@@ -1110,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.038342610712061</v>
+      </c>
+      <c r="D11">
         <v>2.119166172420544</v>
       </c>
-      <c r="D11">
-        <v>1.038342610712063</v>
-      </c>
       <c r="E11">
+        <v>1.038342610712061</v>
+      </c>
+      <c r="F11">
         <v>1.632996029710218</v>
       </c>
-      <c r="F11">
+      <c r="G11">
+        <v>0.793503925600713</v>
+      </c>
+      <c r="H11">
+        <v>0.8648039329755087</v>
+      </c>
+      <c r="I11">
+        <v>1.927313955673331</v>
+      </c>
+      <c r="J11">
         <v>2.119166172420544</v>
-      </c>
-      <c r="G11">
-        <v>1.927313955673331</v>
-      </c>
-      <c r="H11">
-        <v>0.8648039329755089</v>
-      </c>
-      <c r="I11">
-        <v>0.793503925600713</v>
-      </c>
-      <c r="J11">
-        <v>1.038342610712063</v>
       </c>
       <c r="K11">
         <v>2.119166172420544</v>
@@ -1146,13 +1158,13 @@
         <v>1.33566932021114</v>
       </c>
       <c r="O11">
-        <v>1.178714191132597</v>
+        <v>1.178714191132596</v>
       </c>
       <c r="P11">
-        <v>1.596834937614275</v>
+        <v>1.596834937614274</v>
       </c>
       <c r="Q11">
-        <v>1.596834937614275</v>
+        <v>1.596834937614274</v>
       </c>
       <c r="R11">
         <v>1.727417746315842</v>
@@ -1172,58 +1184,58 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.01007200863557245</v>
+      </c>
+      <c r="D12">
         <v>1.645091703518941</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.01007200863557245</v>
       </c>
-      <c r="E12">
-        <v>0.3479448539887899</v>
-      </c>
       <c r="F12">
-        <v>1.645091703518941</v>
+        <v>0.3479448539887881</v>
       </c>
       <c r="G12">
-        <v>0.00160015689206772</v>
+        <v>1.244459221634258</v>
       </c>
       <c r="H12">
         <v>1.137948696465565</v>
       </c>
       <c r="I12">
-        <v>1.244459221634259</v>
+        <v>0.001600156892067721</v>
       </c>
       <c r="J12">
-        <v>0.01007200863557245</v>
+        <v>1.645091703518941</v>
       </c>
       <c r="K12">
         <v>1.645091703518941</v>
       </c>
       <c r="L12">
-        <v>0.3479448539887899</v>
+        <v>0.3479448539887881</v>
       </c>
       <c r="M12">
-        <v>0.1790084313121812</v>
+        <v>0.1790084313121803</v>
       </c>
       <c r="N12">
-        <v>0.1790084313121812</v>
+        <v>0.1790084313121803</v>
       </c>
       <c r="O12">
-        <v>0.4986551863633091</v>
+        <v>0.4986551863633085</v>
       </c>
       <c r="P12">
-        <v>0.6677028553811012</v>
+        <v>0.6677028553811007</v>
       </c>
       <c r="Q12">
-        <v>0.6677028553811012</v>
+        <v>0.6677028553811007</v>
       </c>
       <c r="R12">
-        <v>0.9120500674155612</v>
+        <v>0.9120500674155609</v>
       </c>
       <c r="S12">
-        <v>0.9120500674155612</v>
+        <v>0.9120500674155609</v>
       </c>
       <c r="T12">
-        <v>0.7311861068558657</v>
+        <v>0.7311861068558655</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1246,58 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.65007259725812</v>
+      </c>
+      <c r="D13">
         <v>1.928466147286326</v>
       </c>
-      <c r="D13">
-        <v>1.650072597258125</v>
-      </c>
       <c r="E13">
-        <v>1.633539647079537</v>
+        <v>1.65007259725812</v>
       </c>
       <c r="F13">
+        <v>1.633539647079539</v>
+      </c>
+      <c r="G13">
+        <v>1.43629553007657</v>
+      </c>
+      <c r="H13">
+        <v>0.5302853793049361</v>
+      </c>
+      <c r="I13">
+        <v>0.0565668787269581</v>
+      </c>
+      <c r="J13">
         <v>1.928466147286326</v>
-      </c>
-      <c r="G13">
-        <v>0.0565668787269581</v>
-      </c>
-      <c r="H13">
-        <v>0.5302853793049374</v>
-      </c>
-      <c r="I13">
-        <v>1.43629553007657</v>
-      </c>
-      <c r="J13">
-        <v>1.650072597258125</v>
       </c>
       <c r="K13">
         <v>1.928466147286326</v>
       </c>
       <c r="L13">
-        <v>1.633539647079537</v>
+        <v>1.633539647079539</v>
       </c>
       <c r="M13">
-        <v>1.641806122168831</v>
+        <v>1.641806122168829</v>
       </c>
       <c r="N13">
-        <v>1.641806122168831</v>
+        <v>1.641806122168829</v>
       </c>
       <c r="O13">
-        <v>1.271299207880866</v>
+        <v>1.271299207880865</v>
       </c>
       <c r="P13">
-        <v>1.737359463874663</v>
+        <v>1.737359463874661</v>
       </c>
       <c r="Q13">
-        <v>1.737359463874663</v>
+        <v>1.737359463874661</v>
       </c>
       <c r="R13">
-        <v>1.785136134727578</v>
+        <v>1.785136134727577</v>
       </c>
       <c r="S13">
-        <v>1.785136134727578</v>
+        <v>1.785136134727577</v>
       </c>
       <c r="T13">
-        <v>1.205871029955409</v>
+        <v>1.205871029955408</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1308,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.461016063161417</v>
+        <v>0.1381971188727057</v>
       </c>
       <c r="D14">
-        <v>0.1381971188727059</v>
+        <v>0.4610160631614155</v>
       </c>
       <c r="E14">
-        <v>0.475662596687032</v>
+        <v>0.1381971188727057</v>
       </c>
       <c r="F14">
-        <v>0.461016063161417</v>
+        <v>0.475662596687031</v>
       </c>
       <c r="G14">
-        <v>0.002274229037944545</v>
+        <v>0.6245017140196639</v>
       </c>
       <c r="H14">
         <v>2.386402339852183</v>
       </c>
       <c r="I14">
-        <v>0.6245017140196643</v>
+        <v>0.002274229037944546</v>
       </c>
       <c r="J14">
-        <v>0.1381971188727059</v>
+        <v>0.4610160631614155</v>
       </c>
       <c r="K14">
-        <v>0.461016063161417</v>
+        <v>0.4610160631614155</v>
       </c>
       <c r="L14">
-        <v>0.475662596687032</v>
+        <v>0.475662596687031</v>
       </c>
       <c r="M14">
-        <v>0.3069298577798689</v>
+        <v>0.3069298577798684</v>
       </c>
       <c r="N14">
-        <v>0.3069298577798689</v>
+        <v>0.3069298577798684</v>
       </c>
       <c r="O14">
-        <v>1.000087351803974</v>
+        <v>1.000087351803973</v>
       </c>
       <c r="P14">
-        <v>0.358291926240385</v>
+        <v>0.3582919262403841</v>
       </c>
       <c r="Q14">
-        <v>0.358291926240385</v>
+        <v>0.3582919262403841</v>
       </c>
       <c r="R14">
-        <v>0.383972960470643</v>
+        <v>0.3839729604706419</v>
       </c>
       <c r="S14">
-        <v>0.383972960470643</v>
+        <v>0.3839729604706419</v>
       </c>
       <c r="T14">
-        <v>0.6813423436051579</v>
+        <v>0.6813423436051572</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,31 +1370,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.01876150673234561</v>
+        <v>1.88377347901889</v>
       </c>
       <c r="D15">
+        <v>0.01876150673234562</v>
+      </c>
+      <c r="E15">
         <v>1.88377347901889</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.200061392746518</v>
       </c>
-      <c r="F15">
-        <v>0.01876150673234561</v>
-      </c>
       <c r="G15">
+        <v>0.3036276470584079</v>
+      </c>
+      <c r="H15">
+        <v>0.8012222478846385</v>
+      </c>
+      <c r="I15">
         <v>0.0654776260176899</v>
       </c>
-      <c r="H15">
-        <v>0.8012222478846388</v>
-      </c>
-      <c r="I15">
-        <v>0.3036276470584079</v>
-      </c>
       <c r="J15">
-        <v>1.88377347901889</v>
+        <v>0.01876150673234562</v>
       </c>
       <c r="K15">
-        <v>0.01876150673234561</v>
+        <v>0.01876150673234562</v>
       </c>
       <c r="L15">
         <v>1.200061392746518</v>
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.085290843956848</v>
+        <v>0.2119602387115359</v>
       </c>
       <c r="D16">
-        <v>1.077638796612604</v>
+        <v>8.772724083017868</v>
       </c>
       <c r="E16">
-        <v>1.027228763222599</v>
+        <v>0.2119602387115359</v>
       </c>
       <c r="F16">
-        <v>1.085290843956848</v>
+        <v>4.527437022550671</v>
       </c>
       <c r="G16">
-        <v>1.136107240091608</v>
+        <v>4.369455745238359</v>
       </c>
       <c r="H16">
-        <v>0.9779705929743001</v>
+        <v>0.1965056318392167</v>
       </c>
       <c r="I16">
-        <v>0.9562575347818246</v>
+        <v>1.607950620134847</v>
       </c>
       <c r="J16">
-        <v>1.077638796612604</v>
+        <v>8.772724083017868</v>
       </c>
       <c r="K16">
-        <v>1.085290843956848</v>
+        <v>8.772724083017868</v>
       </c>
       <c r="L16">
-        <v>1.027228763222599</v>
+        <v>4.527437022550671</v>
       </c>
       <c r="M16">
-        <v>1.052433779917602</v>
+        <v>2.369698630631104</v>
       </c>
       <c r="N16">
-        <v>1.052433779917602</v>
+        <v>2.369698630631104</v>
       </c>
       <c r="O16">
-        <v>1.027612717603168</v>
+        <v>1.645300964367141</v>
       </c>
       <c r="P16">
-        <v>1.06338613459735</v>
+        <v>4.504040448093359</v>
       </c>
       <c r="Q16">
-        <v>1.06338613459735</v>
+        <v>4.504040448093359</v>
       </c>
       <c r="R16">
-        <v>1.068862311937225</v>
+        <v>5.571211356824486</v>
       </c>
       <c r="S16">
-        <v>1.068862311937225</v>
+        <v>5.571211356824486</v>
       </c>
       <c r="T16">
-        <v>1.043415628606631</v>
+        <v>3.281005556915417</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.092574662375601</v>
+        <v>0.4159894238974373</v>
       </c>
       <c r="D17">
-        <v>1.101343743264502</v>
+        <v>6.19162732043984</v>
       </c>
       <c r="E17">
-        <v>0.9895647260145773</v>
+        <v>0.4159894238974373</v>
       </c>
       <c r="F17">
-        <v>1.092574662375601</v>
+        <v>3.374271303426402</v>
       </c>
       <c r="G17">
-        <v>1.127239901727791</v>
+        <v>3.225905304178735</v>
       </c>
       <c r="H17">
-        <v>0.985165230591612</v>
+        <v>0.3910147311878817</v>
       </c>
       <c r="I17">
-        <v>1.00022829437986</v>
+        <v>3.308380466827893</v>
       </c>
       <c r="J17">
-        <v>1.101343743264502</v>
+        <v>6.19162732043984</v>
       </c>
       <c r="K17">
-        <v>1.092574662375601</v>
+        <v>6.19162732043984</v>
       </c>
       <c r="L17">
-        <v>0.9895647260145773</v>
+        <v>3.374271303426402</v>
       </c>
       <c r="M17">
-        <v>1.04545423463954</v>
+        <v>1.895130363661919</v>
       </c>
       <c r="N17">
-        <v>1.04545423463954</v>
+        <v>1.895130363661919</v>
       </c>
       <c r="O17">
-        <v>1.025357899956897</v>
+        <v>1.393758486170573</v>
       </c>
       <c r="P17">
-        <v>1.061161043884894</v>
+        <v>3.327296015921226</v>
       </c>
       <c r="Q17">
-        <v>1.061161043884894</v>
+        <v>3.327296015921226</v>
       </c>
       <c r="R17">
-        <v>1.06901444850757</v>
+        <v>4.043378842050879</v>
       </c>
       <c r="S17">
-        <v>1.06901444850757</v>
+        <v>4.043378842050879</v>
       </c>
       <c r="T17">
-        <v>1.049352759725657</v>
+        <v>2.817864758326365</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.195007744407059</v>
+        <v>1.252317015489105</v>
       </c>
       <c r="D18">
-        <v>1.87828879327841</v>
+        <v>1.481368555470583</v>
       </c>
       <c r="E18">
-        <v>1.59847526808502</v>
+        <v>1.252317015489105</v>
       </c>
       <c r="F18">
-        <v>2.195007744407059</v>
+        <v>1.439431991298755</v>
       </c>
       <c r="G18">
-        <v>1.236725628200523</v>
+        <v>0.9491864761870178</v>
       </c>
       <c r="H18">
-        <v>1.030994425126467</v>
+        <v>0.7067187535594595</v>
       </c>
       <c r="I18">
-        <v>1.085991263936131</v>
+        <v>6.843659375445136</v>
       </c>
       <c r="J18">
-        <v>1.87828879327841</v>
+        <v>1.481368555470583</v>
       </c>
       <c r="K18">
-        <v>2.195007744407059</v>
+        <v>1.481368555470583</v>
       </c>
       <c r="L18">
-        <v>1.59847526808502</v>
+        <v>1.439431991298755</v>
       </c>
       <c r="M18">
-        <v>1.738382030681715</v>
+        <v>1.34587450339393</v>
       </c>
       <c r="N18">
-        <v>1.738382030681715</v>
+        <v>1.34587450339393</v>
       </c>
       <c r="O18">
-        <v>1.502586162163299</v>
+        <v>1.13282258678244</v>
       </c>
       <c r="P18">
-        <v>1.890590601923497</v>
+        <v>1.391039187419481</v>
       </c>
       <c r="Q18">
-        <v>1.890590601923497</v>
+        <v>1.391039187419481</v>
       </c>
       <c r="R18">
-        <v>1.966694887544387</v>
+        <v>1.413621529432256</v>
       </c>
       <c r="S18">
-        <v>1.966694887544387</v>
+        <v>1.413621529432256</v>
       </c>
       <c r="T18">
-        <v>1.504247187172268</v>
+        <v>2.112113694575009</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9429926718960334</v>
+        <v>2.756409525895673</v>
       </c>
       <c r="D19">
+        <v>1.403396854411131</v>
+      </c>
+      <c r="E19">
+        <v>2.756409525895673</v>
+      </c>
+      <c r="F19">
+        <v>0.8974266632613368</v>
+      </c>
+      <c r="G19">
+        <v>1.256771695307749</v>
+      </c>
+      <c r="H19">
+        <v>0.5302882116152589</v>
+      </c>
+      <c r="I19">
+        <v>9.048994450007898</v>
+      </c>
+      <c r="J19">
+        <v>1.403396854411131</v>
+      </c>
+      <c r="K19">
+        <v>1.403396854411131</v>
+      </c>
+      <c r="L19">
+        <v>0.8974266632613368</v>
+      </c>
+      <c r="M19">
+        <v>1.826918094578505</v>
+      </c>
+      <c r="N19">
+        <v>1.826918094578505</v>
+      </c>
+      <c r="O19">
+        <v>1.394708133590757</v>
+      </c>
+      <c r="P19">
+        <v>1.685744347856047</v>
+      </c>
+      <c r="Q19">
+        <v>1.685744347856047</v>
+      </c>
+      <c r="R19">
+        <v>1.615157474494818</v>
+      </c>
+      <c r="S19">
+        <v>1.615157474494818</v>
+      </c>
+      <c r="T19">
+        <v>2.648881233416508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.077638796612605</v>
+      </c>
+      <c r="D20">
+        <v>1.08529084395685</v>
+      </c>
+      <c r="E20">
+        <v>1.077638796612605</v>
+      </c>
+      <c r="F20">
+        <v>1.0272287632226</v>
+      </c>
+      <c r="G20">
+        <v>0.9562575347818271</v>
+      </c>
+      <c r="H20">
+        <v>0.9779705929743004</v>
+      </c>
+      <c r="I20">
+        <v>1.136107240091607</v>
+      </c>
+      <c r="J20">
+        <v>1.08529084395685</v>
+      </c>
+      <c r="K20">
+        <v>1.08529084395685</v>
+      </c>
+      <c r="L20">
+        <v>1.0272287632226</v>
+      </c>
+      <c r="M20">
+        <v>1.052433779917602</v>
+      </c>
+      <c r="N20">
+        <v>1.052433779917602</v>
+      </c>
+      <c r="O20">
+        <v>1.027612717603168</v>
+      </c>
+      <c r="P20">
+        <v>1.063386134597352</v>
+      </c>
+      <c r="Q20">
+        <v>1.063386134597352</v>
+      </c>
+      <c r="R20">
+        <v>1.068862311937226</v>
+      </c>
+      <c r="S20">
+        <v>1.068862311937226</v>
+      </c>
+      <c r="T20">
+        <v>1.043415628606632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.1013437432645</v>
+      </c>
+      <c r="D21">
+        <v>1.092574662375605</v>
+      </c>
+      <c r="E21">
+        <v>1.1013437432645</v>
+      </c>
+      <c r="F21">
+        <v>0.989564726014578</v>
+      </c>
+      <c r="G21">
+        <v>1.000228294379863</v>
+      </c>
+      <c r="H21">
+        <v>0.9851652305916114</v>
+      </c>
+      <c r="I21">
+        <v>1.12723990172779</v>
+      </c>
+      <c r="J21">
+        <v>1.092574662375605</v>
+      </c>
+      <c r="K21">
+        <v>1.092574662375605</v>
+      </c>
+      <c r="L21">
+        <v>0.989564726014578</v>
+      </c>
+      <c r="M21">
+        <v>1.045454234639539</v>
+      </c>
+      <c r="N21">
+        <v>1.045454234639539</v>
+      </c>
+      <c r="O21">
+        <v>1.025357899956896</v>
+      </c>
+      <c r="P21">
+        <v>1.061161043884894</v>
+      </c>
+      <c r="Q21">
+        <v>1.061161043884894</v>
+      </c>
+      <c r="R21">
+        <v>1.069014448507572</v>
+      </c>
+      <c r="S21">
+        <v>1.069014448507572</v>
+      </c>
+      <c r="T21">
+        <v>1.049352759725658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.878288793278413</v>
+      </c>
+      <c r="D22">
+        <v>2.19500774440707</v>
+      </c>
+      <c r="E22">
+        <v>1.878288793278413</v>
+      </c>
+      <c r="F22">
+        <v>1.598475268085026</v>
+      </c>
+      <c r="G22">
+        <v>1.085991263936134</v>
+      </c>
+      <c r="H22">
+        <v>1.030994425126469</v>
+      </c>
+      <c r="I22">
+        <v>1.236725628200517</v>
+      </c>
+      <c r="J22">
+        <v>2.19500774440707</v>
+      </c>
+      <c r="K22">
+        <v>2.19500774440707</v>
+      </c>
+      <c r="L22">
+        <v>1.598475268085026</v>
+      </c>
+      <c r="M22">
+        <v>1.73838203068172</v>
+      </c>
+      <c r="N22">
+        <v>1.73838203068172</v>
+      </c>
+      <c r="O22">
+        <v>1.502586162163303</v>
+      </c>
+      <c r="P22">
+        <v>1.890590601923503</v>
+      </c>
+      <c r="Q22">
+        <v>1.890590601923503</v>
+      </c>
+      <c r="R22">
+        <v>1.966694887544395</v>
+      </c>
+      <c r="S22">
+        <v>1.966694887544395</v>
+      </c>
+      <c r="T22">
+        <v>1.504247187172272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>2.790966451419252</v>
       </c>
-      <c r="E19">
+      <c r="D23">
+        <v>0.9429926718960335</v>
+      </c>
+      <c r="E23">
+        <v>2.790966451419252</v>
+      </c>
+      <c r="F23">
         <v>0.6774857153846733</v>
       </c>
-      <c r="F19">
-        <v>0.9429926718960334</v>
-      </c>
-      <c r="G19">
+      <c r="G23">
+        <v>1.752577089019802</v>
+      </c>
+      <c r="H23">
+        <v>0.900839153314214</v>
+      </c>
+      <c r="I23">
         <v>1.984226217357671</v>
       </c>
-      <c r="H19">
-        <v>0.900839153314214</v>
-      </c>
-      <c r="I19">
-        <v>1.752577089019802</v>
-      </c>
-      <c r="J19">
-        <v>2.790966451419252</v>
-      </c>
-      <c r="K19">
-        <v>0.9429926718960334</v>
-      </c>
-      <c r="L19">
+      <c r="J23">
+        <v>0.9429926718960335</v>
+      </c>
+      <c r="K23">
+        <v>0.9429926718960335</v>
+      </c>
+      <c r="L23">
         <v>0.6774857153846733</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.734226083401962</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.734226083401962</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.456430440039379</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.470481612899986</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.470481612899986</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.338609377648998</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.338609377648998</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.508181216398608</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW03.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.022537693153551</v>
+        <v>0.8245988477892644</v>
       </c>
       <c r="D3">
-        <v>1.563249921210121</v>
+        <v>1.241518653097417</v>
       </c>
       <c r="E3">
-        <v>1.022537693153551</v>
+        <v>0.8245988477892644</v>
       </c>
       <c r="F3">
-        <v>1.278925130842034</v>
+        <v>1.14064159226147</v>
       </c>
       <c r="G3">
-        <v>1.162250653953762</v>
+        <v>1.018761293239957</v>
       </c>
       <c r="H3">
-        <v>0.9489219504522401</v>
+        <v>0.7337219495375592</v>
       </c>
       <c r="I3">
-        <v>1.155134804645928</v>
+        <v>10.83646012326775</v>
       </c>
       <c r="J3">
-        <v>1.563249921210121</v>
+        <v>1.241518653097417</v>
       </c>
       <c r="K3">
-        <v>1.563249921210121</v>
+        <v>1.241518653097417</v>
       </c>
       <c r="L3">
-        <v>1.278925130842034</v>
+        <v>1.14064159226147</v>
       </c>
       <c r="M3">
-        <v>1.150731411997792</v>
+        <v>0.9826202200253673</v>
       </c>
       <c r="N3">
-        <v>1.150731411997792</v>
+        <v>0.9826202200253673</v>
       </c>
       <c r="O3">
-        <v>1.083461591482608</v>
+        <v>0.8996541298627646</v>
       </c>
       <c r="P3">
-        <v>1.288237581735235</v>
+        <v>1.06891969771605</v>
       </c>
       <c r="Q3">
-        <v>1.288237581735235</v>
+        <v>1.06891969771605</v>
       </c>
       <c r="R3">
-        <v>1.356990666603957</v>
+        <v>1.112069436561392</v>
       </c>
       <c r="S3">
-        <v>1.356990666603957</v>
+        <v>1.112069436561392</v>
       </c>
       <c r="T3">
-        <v>1.188503359042939</v>
+        <v>2.632617076532237</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.453259462746687</v>
+        <v>0.827581224079736</v>
       </c>
       <c r="D4">
-        <v>2.38256525955612</v>
+        <v>1.089632280805655</v>
       </c>
       <c r="E4">
-        <v>1.453259462746687</v>
+        <v>0.827581224079736</v>
       </c>
       <c r="F4">
-        <v>1.594093757720581</v>
+        <v>1.083030078394561</v>
       </c>
       <c r="G4">
-        <v>1.555935927545614</v>
+        <v>0.9744045262380521</v>
       </c>
       <c r="H4">
-        <v>0.8966400028767746</v>
+        <v>0.7591929633067431</v>
       </c>
       <c r="I4">
-        <v>1.292827208771685</v>
+        <v>8.564411198173964</v>
       </c>
       <c r="J4">
-        <v>2.38256525955612</v>
+        <v>1.089632280805655</v>
       </c>
       <c r="K4">
-        <v>2.38256525955612</v>
+        <v>1.089632280805655</v>
       </c>
       <c r="L4">
-        <v>1.594093757720581</v>
+        <v>1.083030078394561</v>
       </c>
       <c r="M4">
-        <v>1.523676610233634</v>
+        <v>0.9553056512371484</v>
       </c>
       <c r="N4">
-        <v>1.523676610233634</v>
+        <v>0.9553056512371484</v>
       </c>
       <c r="O4">
-        <v>1.314664407781348</v>
+        <v>0.8899347552603466</v>
       </c>
       <c r="P4">
-        <v>1.809972826674463</v>
+        <v>1.000081194426651</v>
       </c>
       <c r="Q4">
-        <v>1.809972826674463</v>
+        <v>1.000081194426651</v>
       </c>
       <c r="R4">
-        <v>1.953120934894877</v>
+        <v>1.022468966021402</v>
       </c>
       <c r="S4">
-        <v>1.953120934894877</v>
+        <v>1.022468966021402</v>
       </c>
       <c r="T4">
-        <v>1.529220269869577</v>
+        <v>2.216375378499785</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.329996204023808</v>
+        <v>0.2794140894618332</v>
       </c>
       <c r="D5">
-        <v>5.874626228595446</v>
+        <v>2.26761072282488</v>
       </c>
       <c r="E5">
-        <v>4.329996204023808</v>
+        <v>0.2794140894618332</v>
       </c>
       <c r="F5">
-        <v>3.064112085106716</v>
+        <v>2.474191607896802</v>
       </c>
       <c r="G5">
-        <v>3.620066863740216</v>
+        <v>1.595198467859676</v>
       </c>
       <c r="H5">
-        <v>1.206673323736861</v>
+        <v>0.5403539567970083</v>
       </c>
       <c r="I5">
-        <v>2.872149357749743</v>
+        <v>20.16242913919296</v>
       </c>
       <c r="J5">
-        <v>5.874626228595446</v>
+        <v>2.26761072282488</v>
       </c>
       <c r="K5">
-        <v>5.874626228595446</v>
+        <v>2.26761072282488</v>
       </c>
       <c r="L5">
-        <v>3.064112085106716</v>
+        <v>2.474191607896802</v>
       </c>
       <c r="M5">
-        <v>3.697054144565262</v>
+        <v>1.376802848679318</v>
       </c>
       <c r="N5">
-        <v>3.697054144565262</v>
+        <v>1.376802848679318</v>
       </c>
       <c r="O5">
-        <v>2.866927204289128</v>
+        <v>1.097986551385215</v>
       </c>
       <c r="P5">
-        <v>4.422911505908656</v>
+        <v>1.673738806727838</v>
       </c>
       <c r="Q5">
-        <v>4.422911505908656</v>
+        <v>1.673738806727838</v>
       </c>
       <c r="R5">
-        <v>4.785840186580353</v>
+        <v>1.822206785752099</v>
       </c>
       <c r="S5">
-        <v>4.785840186580353</v>
+        <v>1.822206785752099</v>
       </c>
       <c r="T5">
-        <v>3.494604010492131</v>
+        <v>4.553199664005526</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.05394110642510112</v>
+        <v>0.2109667684222726</v>
       </c>
       <c r="D6">
-        <v>12.26507158053912</v>
+        <v>4.581069851142272</v>
       </c>
       <c r="E6">
-        <v>0.05394110642510112</v>
+        <v>0.2109667684222726</v>
       </c>
       <c r="F6">
-        <v>8.419018954674451</v>
+        <v>2.719478063784545</v>
       </c>
       <c r="G6">
-        <v>1.769732564961791</v>
+        <v>0.32934764902875</v>
       </c>
       <c r="H6">
-        <v>0.1650531904634235</v>
+        <v>0.5799448207730117</v>
       </c>
       <c r="I6">
-        <v>3.104802674869862</v>
+        <v>27.20443224451861</v>
       </c>
       <c r="J6">
-        <v>12.26507158053912</v>
+        <v>4.581069851142272</v>
       </c>
       <c r="K6">
-        <v>12.26507158053912</v>
+        <v>4.581069851142272</v>
       </c>
       <c r="L6">
-        <v>8.419018954674451</v>
+        <v>2.719478063784545</v>
       </c>
       <c r="M6">
-        <v>4.236480030549776</v>
+        <v>1.465222416103409</v>
       </c>
       <c r="N6">
-        <v>4.236480030549776</v>
+        <v>1.465222416103409</v>
       </c>
       <c r="O6">
-        <v>2.879337750520992</v>
+        <v>1.17012988432661</v>
       </c>
       <c r="P6">
-        <v>6.912677213879557</v>
+        <v>2.50383822778303</v>
       </c>
       <c r="Q6">
-        <v>6.912677213879557</v>
+        <v>2.50383822778303</v>
       </c>
       <c r="R6">
-        <v>8.250775805544448</v>
+        <v>3.02314613362284</v>
       </c>
       <c r="S6">
-        <v>8.250775805544448</v>
+        <v>3.02314613362284</v>
       </c>
       <c r="T6">
-        <v>4.296270011988958</v>
+        <v>5.937539899611576</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.058084202359294</v>
+        <v>3.977215299685178</v>
       </c>
       <c r="D7">
-        <v>1.090377536068439</v>
+        <v>4.133322694755357</v>
       </c>
       <c r="E7">
-        <v>1.058084202359294</v>
+        <v>3.977215299685178</v>
       </c>
       <c r="F7">
-        <v>1.028073241892926</v>
+        <v>2.057531527347155</v>
       </c>
       <c r="G7">
-        <v>0.9770032097807069</v>
+        <v>0.902572544359544</v>
       </c>
       <c r="H7">
-        <v>0.9763471619631469</v>
+        <v>0.001782616594278395</v>
       </c>
       <c r="I7">
-        <v>1.163915367201085</v>
+        <v>3.645563115222862</v>
       </c>
       <c r="J7">
-        <v>1.090377536068439</v>
+        <v>4.133322694755357</v>
       </c>
       <c r="K7">
-        <v>1.090377536068439</v>
+        <v>4.133322694755357</v>
       </c>
       <c r="L7">
-        <v>1.028073241892926</v>
+        <v>2.057531527347155</v>
       </c>
       <c r="M7">
-        <v>1.04307872212611</v>
+        <v>3.017373413516166</v>
       </c>
       <c r="N7">
-        <v>1.04307872212611</v>
+        <v>3.017373413516166</v>
       </c>
       <c r="O7">
-        <v>1.020834868738456</v>
+        <v>2.01217648120887</v>
       </c>
       <c r="P7">
-        <v>1.05884499344022</v>
+        <v>3.389356507262563</v>
       </c>
       <c r="Q7">
-        <v>1.05884499344022</v>
+        <v>3.389356507262563</v>
       </c>
       <c r="R7">
-        <v>1.066728129097274</v>
+        <v>3.575348054135762</v>
       </c>
       <c r="S7">
-        <v>1.066728129097274</v>
+        <v>3.575348054135762</v>
       </c>
       <c r="T7">
-        <v>1.048966786544266</v>
+        <v>2.452997966327395</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.0478262894412</v>
+        <v>3.957012893366927</v>
       </c>
       <c r="D8">
-        <v>1.113899009087697</v>
+        <v>4.22205352347879</v>
       </c>
       <c r="E8">
-        <v>1.0478262894412</v>
+        <v>3.957012893366927</v>
       </c>
       <c r="F8">
-        <v>1.041284570080262</v>
+        <v>2.100187808181157</v>
       </c>
       <c r="G8">
-        <v>0.9776547460302408</v>
+        <v>0.8961569095651547</v>
       </c>
       <c r="H8">
-        <v>0.9785109269382176</v>
+        <v>0.001763250605379857</v>
       </c>
       <c r="I8">
-        <v>1.32474150945272</v>
+        <v>3.986963441932826</v>
       </c>
       <c r="J8">
-        <v>1.113899009087697</v>
+        <v>4.22205352347879</v>
       </c>
       <c r="K8">
-        <v>1.113899009087697</v>
+        <v>4.22205352347879</v>
       </c>
       <c r="L8">
-        <v>1.041284570080262</v>
+        <v>2.100187808181157</v>
       </c>
       <c r="M8">
-        <v>1.044555429760731</v>
+        <v>3.028600350774042</v>
       </c>
       <c r="N8">
-        <v>1.044555429760731</v>
+        <v>3.028600350774042</v>
       </c>
       <c r="O8">
-        <v>1.02254059548656</v>
+        <v>2.019654650717821</v>
       </c>
       <c r="P8">
-        <v>1.067669956203053</v>
+        <v>3.426418075008958</v>
       </c>
       <c r="Q8">
-        <v>1.067669956203053</v>
+        <v>3.426418075008959</v>
       </c>
       <c r="R8">
-        <v>1.079227219424214</v>
+        <v>3.625326937126416</v>
       </c>
       <c r="S8">
-        <v>1.079227219424214</v>
+        <v>3.625326937126416</v>
       </c>
       <c r="T8">
-        <v>1.08065284183839</v>
+        <v>2.527356304521706</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.037225151812327</v>
+        <v>3.945665820292235</v>
       </c>
       <c r="D9">
-        <v>1.373463368956794</v>
+        <v>4.221458043082236</v>
       </c>
       <c r="E9">
-        <v>1.037225151812327</v>
+        <v>3.945665820292235</v>
       </c>
       <c r="F9">
-        <v>1.16873461494828</v>
+        <v>2.095693024013658</v>
       </c>
       <c r="G9">
-        <v>0.9277673632646669</v>
+        <v>0.8891844094802299</v>
       </c>
       <c r="H9">
-        <v>0.9725353433454496</v>
+        <v>0.001735681308094236</v>
       </c>
       <c r="I9">
-        <v>1.279470034065652</v>
+        <v>4.652190397559616</v>
       </c>
       <c r="J9">
-        <v>1.373463368956794</v>
+        <v>4.221458043082236</v>
       </c>
       <c r="K9">
-        <v>1.373463368956794</v>
+        <v>4.221458043082236</v>
       </c>
       <c r="L9">
-        <v>1.16873461494828</v>
+        <v>2.095693024013658</v>
       </c>
       <c r="M9">
-        <v>1.102979883380304</v>
+        <v>3.020679422152947</v>
       </c>
       <c r="N9">
-        <v>1.102979883380304</v>
+        <v>3.020679422152947</v>
       </c>
       <c r="O9">
-        <v>1.059498370035352</v>
+        <v>2.014364841871329</v>
       </c>
       <c r="P9">
-        <v>1.193141045239134</v>
+        <v>3.42093896246271</v>
       </c>
       <c r="Q9">
-        <v>1.193141045239134</v>
+        <v>3.42093896246271</v>
       </c>
       <c r="R9">
-        <v>1.238221626168549</v>
+        <v>3.621068732617592</v>
       </c>
       <c r="S9">
-        <v>1.238221626168549</v>
+        <v>3.621068732617592</v>
       </c>
       <c r="T9">
-        <v>1.126532646065528</v>
+        <v>2.634321229289345</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.03674358039656</v>
+        <v>3.893551027883769</v>
       </c>
       <c r="D10">
-        <v>1.64619708387329</v>
+        <v>4.710592001624872</v>
       </c>
       <c r="E10">
-        <v>1.03674358039656</v>
+        <v>3.893551027883769</v>
       </c>
       <c r="F10">
-        <v>1.268053026656183</v>
+        <v>2.331051954531059</v>
       </c>
       <c r="G10">
-        <v>1.13110992103183</v>
+        <v>0.869190753036619</v>
       </c>
       <c r="H10">
-        <v>0.9536378273754985</v>
+        <v>0.001684803771998532</v>
       </c>
       <c r="I10">
-        <v>1.935228769662612</v>
+        <v>5.930507587234108</v>
       </c>
       <c r="J10">
-        <v>1.64619708387329</v>
+        <v>4.710592001624872</v>
       </c>
       <c r="K10">
-        <v>1.64619708387329</v>
+        <v>4.710592001624872</v>
       </c>
       <c r="L10">
-        <v>1.268053026656183</v>
+        <v>2.331051954531059</v>
       </c>
       <c r="M10">
-        <v>1.152398303526372</v>
+        <v>3.112301491207414</v>
       </c>
       <c r="N10">
-        <v>1.152398303526372</v>
+        <v>3.112301491207414</v>
       </c>
       <c r="O10">
-        <v>1.086144811476081</v>
+        <v>2.075429262062276</v>
       </c>
       <c r="P10">
-        <v>1.316997896975344</v>
+        <v>3.6450649946799</v>
       </c>
       <c r="Q10">
-        <v>1.316997896975344</v>
+        <v>3.6450649946799</v>
       </c>
       <c r="R10">
-        <v>1.399297693699831</v>
+        <v>3.911446746416143</v>
       </c>
       <c r="S10">
-        <v>1.399297693699831</v>
+        <v>3.911446746416143</v>
       </c>
       <c r="T10">
-        <v>1.328495034832662</v>
+        <v>2.956096354680405</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.038342610712061</v>
+        <v>1.017105050004865</v>
       </c>
       <c r="D11">
-        <v>2.119166172420544</v>
+        <v>1.540223002437691</v>
       </c>
       <c r="E11">
-        <v>1.038342610712061</v>
+        <v>1.017105050004865</v>
       </c>
       <c r="F11">
-        <v>1.632996029710218</v>
+        <v>1.234741558948977</v>
       </c>
       <c r="G11">
-        <v>0.793503925600713</v>
+        <v>1.180108663615856</v>
       </c>
       <c r="H11">
-        <v>0.8648039329755087</v>
+        <v>0.9308663891584225</v>
       </c>
       <c r="I11">
-        <v>1.927313955673331</v>
+        <v>1.076657622157771</v>
       </c>
       <c r="J11">
-        <v>2.119166172420544</v>
+        <v>1.540223002437691</v>
       </c>
       <c r="K11">
-        <v>2.119166172420544</v>
+        <v>1.540223002437691</v>
       </c>
       <c r="L11">
-        <v>1.632996029710218</v>
+        <v>1.234741558948977</v>
       </c>
       <c r="M11">
-        <v>1.33566932021114</v>
+        <v>1.125923304476921</v>
       </c>
       <c r="N11">
-        <v>1.33566932021114</v>
+        <v>1.125923304476921</v>
       </c>
       <c r="O11">
-        <v>1.178714191132596</v>
+        <v>1.060904332704088</v>
       </c>
       <c r="P11">
-        <v>1.596834937614274</v>
+        <v>1.264023203797177</v>
       </c>
       <c r="Q11">
-        <v>1.596834937614274</v>
+        <v>1.264023203797177</v>
       </c>
       <c r="R11">
-        <v>1.727417746315842</v>
+        <v>1.333073153457306</v>
       </c>
       <c r="S11">
-        <v>1.727417746315842</v>
+        <v>1.333073153457306</v>
       </c>
       <c r="T11">
-        <v>1.396021104515396</v>
+        <v>1.163283714387264</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.01007200863557245</v>
+        <v>1.060192643978451</v>
       </c>
       <c r="D12">
-        <v>1.645091703518941</v>
+        <v>1.314455473109869</v>
       </c>
       <c r="E12">
-        <v>0.01007200863557245</v>
+        <v>1.060192643978451</v>
       </c>
       <c r="F12">
-        <v>0.3479448539887881</v>
+        <v>1.123487343671537</v>
       </c>
       <c r="G12">
-        <v>1.244459221634258</v>
+        <v>1.072905841496149</v>
       </c>
       <c r="H12">
-        <v>1.137948696465565</v>
+        <v>0.9508537616428022</v>
       </c>
       <c r="I12">
-        <v>0.001600156892067721</v>
+        <v>1.097885444179933</v>
       </c>
       <c r="J12">
-        <v>1.645091703518941</v>
+        <v>1.314455473109869</v>
       </c>
       <c r="K12">
-        <v>1.645091703518941</v>
+        <v>1.314455473109869</v>
       </c>
       <c r="L12">
-        <v>0.3479448539887881</v>
+        <v>1.123487343671537</v>
       </c>
       <c r="M12">
-        <v>0.1790084313121803</v>
+        <v>1.091839993824994</v>
       </c>
       <c r="N12">
-        <v>0.1790084313121803</v>
+        <v>1.091839993824994</v>
       </c>
       <c r="O12">
-        <v>0.4986551863633085</v>
+        <v>1.044844583097597</v>
       </c>
       <c r="P12">
-        <v>0.6677028553811007</v>
+        <v>1.166045153586619</v>
       </c>
       <c r="Q12">
-        <v>0.6677028553811007</v>
+        <v>1.166045153586619</v>
       </c>
       <c r="R12">
-        <v>0.9120500674155609</v>
+        <v>1.203147733467432</v>
       </c>
       <c r="S12">
-        <v>0.9120500674155609</v>
+        <v>1.203147733467432</v>
       </c>
       <c r="T12">
-        <v>0.7311861068558655</v>
+        <v>1.103296751346457</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.65007259725812</v>
+        <v>0.2581149408446344</v>
       </c>
       <c r="D13">
-        <v>1.928466147286326</v>
+        <v>3.317885128740148</v>
       </c>
       <c r="E13">
-        <v>1.65007259725812</v>
+        <v>0.2581149408446344</v>
       </c>
       <c r="F13">
-        <v>1.633539647079539</v>
+        <v>2.95285867776878</v>
       </c>
       <c r="G13">
-        <v>1.43629553007657</v>
+        <v>2.484788547509001</v>
       </c>
       <c r="H13">
-        <v>0.5302853793049361</v>
+        <v>0.9820137606723819</v>
       </c>
       <c r="I13">
-        <v>0.0565668787269581</v>
+        <v>2.304278983586969</v>
       </c>
       <c r="J13">
-        <v>1.928466147286326</v>
+        <v>3.317885128740148</v>
       </c>
       <c r="K13">
-        <v>1.928466147286326</v>
+        <v>3.317885128740148</v>
       </c>
       <c r="L13">
-        <v>1.633539647079539</v>
+        <v>2.95285867776878</v>
       </c>
       <c r="M13">
-        <v>1.641806122168829</v>
+        <v>1.605486809306707</v>
       </c>
       <c r="N13">
-        <v>1.641806122168829</v>
+        <v>1.605486809306707</v>
       </c>
       <c r="O13">
-        <v>1.271299207880865</v>
+        <v>1.397662459761932</v>
       </c>
       <c r="P13">
-        <v>1.737359463874661</v>
+        <v>2.176286249117854</v>
       </c>
       <c r="Q13">
-        <v>1.737359463874661</v>
+        <v>2.176286249117854</v>
       </c>
       <c r="R13">
-        <v>1.785136134727577</v>
+        <v>2.461685969023427</v>
       </c>
       <c r="S13">
-        <v>1.785136134727577</v>
+        <v>2.461685969023427</v>
       </c>
       <c r="T13">
-        <v>1.205871029955408</v>
+        <v>2.049990006520319</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1381971188727057</v>
+        <v>0.1306787284240738</v>
       </c>
       <c r="D14">
-        <v>0.4610160631614155</v>
+        <v>7.150464186272439</v>
       </c>
       <c r="E14">
-        <v>0.1381971188727057</v>
+        <v>0.1306787284240738</v>
       </c>
       <c r="F14">
-        <v>0.475662596687031</v>
+        <v>4.42153640010249</v>
       </c>
       <c r="G14">
-        <v>0.6245017140196639</v>
+        <v>0.7687441907231697</v>
       </c>
       <c r="H14">
-        <v>2.386402339852183</v>
+        <v>0.8578718255682818</v>
       </c>
       <c r="I14">
-        <v>0.002274229037944546</v>
+        <v>1.959671729938755</v>
       </c>
       <c r="J14">
-        <v>0.4610160631614155</v>
+        <v>7.150464186272439</v>
       </c>
       <c r="K14">
-        <v>0.4610160631614155</v>
+        <v>7.150464186272439</v>
       </c>
       <c r="L14">
-        <v>0.475662596687031</v>
+        <v>4.42153640010249</v>
       </c>
       <c r="M14">
-        <v>0.3069298577798684</v>
+        <v>2.276107564263282</v>
       </c>
       <c r="N14">
-        <v>0.3069298577798684</v>
+        <v>2.276107564263282</v>
       </c>
       <c r="O14">
-        <v>1.000087351803973</v>
+        <v>1.803362318031615</v>
       </c>
       <c r="P14">
-        <v>0.3582919262403841</v>
+        <v>3.900893104933001</v>
       </c>
       <c r="Q14">
-        <v>0.3582919262403841</v>
+        <v>3.900893104933001</v>
       </c>
       <c r="R14">
-        <v>0.3839729604706419</v>
+        <v>4.713285875267861</v>
       </c>
       <c r="S14">
-        <v>0.3839729604706419</v>
+        <v>4.713285875267861</v>
       </c>
       <c r="T14">
-        <v>0.6813423436051572</v>
+        <v>2.548161176838202</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.88377347901889</v>
+        <v>1.022537693153551</v>
       </c>
       <c r="D15">
-        <v>0.01876150673234562</v>
+        <v>1.563249921210121</v>
       </c>
       <c r="E15">
-        <v>1.88377347901889</v>
+        <v>1.022537693153551</v>
       </c>
       <c r="F15">
-        <v>1.200061392746518</v>
+        <v>1.278925130842034</v>
       </c>
       <c r="G15">
-        <v>0.3036276470584079</v>
+        <v>1.162250653953762</v>
       </c>
       <c r="H15">
-        <v>0.8012222478846385</v>
+        <v>0.9489219504522401</v>
       </c>
       <c r="I15">
-        <v>0.0654776260176899</v>
+        <v>1.155134804645928</v>
       </c>
       <c r="J15">
-        <v>0.01876150673234562</v>
+        <v>1.563249921210121</v>
       </c>
       <c r="K15">
-        <v>0.01876150673234562</v>
+        <v>1.563249921210121</v>
       </c>
       <c r="L15">
-        <v>1.200061392746518</v>
+        <v>1.278925130842034</v>
       </c>
       <c r="M15">
-        <v>1.541917435882704</v>
+        <v>1.150731411997792</v>
       </c>
       <c r="N15">
-        <v>1.541917435882704</v>
+        <v>1.150731411997792</v>
       </c>
       <c r="O15">
-        <v>1.295019039883349</v>
+        <v>1.083461591482608</v>
       </c>
       <c r="P15">
-        <v>1.034198792832584</v>
+        <v>1.288237581735235</v>
       </c>
       <c r="Q15">
-        <v>1.034198792832585</v>
+        <v>1.288237581735235</v>
       </c>
       <c r="R15">
-        <v>0.7803394713075248</v>
+        <v>1.356990666603957</v>
       </c>
       <c r="S15">
-        <v>0.7803394713075248</v>
+        <v>1.356990666603957</v>
       </c>
       <c r="T15">
-        <v>0.7121539832430818</v>
+        <v>1.188503359042939</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.2119602387115359</v>
+        <v>1.453259462746687</v>
       </c>
       <c r="D16">
-        <v>8.772724083017868</v>
+        <v>2.38256525955612</v>
       </c>
       <c r="E16">
-        <v>0.2119602387115359</v>
+        <v>1.453259462746687</v>
       </c>
       <c r="F16">
-        <v>4.527437022550671</v>
+        <v>1.594093757720581</v>
       </c>
       <c r="G16">
-        <v>4.369455745238359</v>
+        <v>1.555935927545614</v>
       </c>
       <c r="H16">
-        <v>0.1965056318392167</v>
+        <v>0.8966400028767746</v>
       </c>
       <c r="I16">
-        <v>1.607950620134847</v>
+        <v>1.292827208771685</v>
       </c>
       <c r="J16">
-        <v>8.772724083017868</v>
+        <v>2.38256525955612</v>
       </c>
       <c r="K16">
-        <v>8.772724083017868</v>
+        <v>2.38256525955612</v>
       </c>
       <c r="L16">
-        <v>4.527437022550671</v>
+        <v>1.594093757720581</v>
       </c>
       <c r="M16">
-        <v>2.369698630631104</v>
+        <v>1.523676610233634</v>
       </c>
       <c r="N16">
-        <v>2.369698630631104</v>
+        <v>1.523676610233634</v>
       </c>
       <c r="O16">
-        <v>1.645300964367141</v>
+        <v>1.314664407781348</v>
       </c>
       <c r="P16">
-        <v>4.504040448093359</v>
+        <v>1.809972826674463</v>
       </c>
       <c r="Q16">
-        <v>4.504040448093359</v>
+        <v>1.809972826674463</v>
       </c>
       <c r="R16">
-        <v>5.571211356824486</v>
+        <v>1.953120934894877</v>
       </c>
       <c r="S16">
-        <v>5.571211356824486</v>
+        <v>1.953120934894877</v>
       </c>
       <c r="T16">
-        <v>3.281005556915417</v>
+        <v>1.529220269869577</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.4159894238974373</v>
+        <v>4.329996204023808</v>
       </c>
       <c r="D17">
-        <v>6.19162732043984</v>
+        <v>5.874626228595446</v>
       </c>
       <c r="E17">
-        <v>0.4159894238974373</v>
+        <v>4.329996204023808</v>
       </c>
       <c r="F17">
-        <v>3.374271303426402</v>
+        <v>3.064112085106716</v>
       </c>
       <c r="G17">
-        <v>3.225905304178735</v>
+        <v>3.620066863740216</v>
       </c>
       <c r="H17">
-        <v>0.3910147311878817</v>
+        <v>1.206673323736861</v>
       </c>
       <c r="I17">
-        <v>3.308380466827893</v>
+        <v>2.872149357749743</v>
       </c>
       <c r="J17">
-        <v>6.19162732043984</v>
+        <v>5.874626228595446</v>
       </c>
       <c r="K17">
-        <v>6.19162732043984</v>
+        <v>5.874626228595446</v>
       </c>
       <c r="L17">
-        <v>3.374271303426402</v>
+        <v>3.064112085106716</v>
       </c>
       <c r="M17">
-        <v>1.895130363661919</v>
+        <v>3.697054144565262</v>
       </c>
       <c r="N17">
-        <v>1.895130363661919</v>
+        <v>3.697054144565262</v>
       </c>
       <c r="O17">
-        <v>1.393758486170573</v>
+        <v>2.866927204289128</v>
       </c>
       <c r="P17">
-        <v>3.327296015921226</v>
+        <v>4.422911505908656</v>
       </c>
       <c r="Q17">
-        <v>3.327296015921226</v>
+        <v>4.422911505908656</v>
       </c>
       <c r="R17">
-        <v>4.043378842050879</v>
+        <v>4.785840186580353</v>
       </c>
       <c r="S17">
-        <v>4.043378842050879</v>
+        <v>4.785840186580353</v>
       </c>
       <c r="T17">
-        <v>2.817864758326365</v>
+        <v>3.494604010492131</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.252317015489105</v>
+        <v>0.05394110642510112</v>
       </c>
       <c r="D18">
-        <v>1.481368555470583</v>
+        <v>12.26507158053912</v>
       </c>
       <c r="E18">
-        <v>1.252317015489105</v>
+        <v>0.05394110642510112</v>
       </c>
       <c r="F18">
-        <v>1.439431991298755</v>
+        <v>8.419018954674451</v>
       </c>
       <c r="G18">
-        <v>0.9491864761870178</v>
+        <v>1.769732564961791</v>
       </c>
       <c r="H18">
-        <v>0.7067187535594595</v>
+        <v>0.1650531904634235</v>
       </c>
       <c r="I18">
-        <v>6.843659375445136</v>
+        <v>3.104802674869862</v>
       </c>
       <c r="J18">
-        <v>1.481368555470583</v>
+        <v>12.26507158053912</v>
       </c>
       <c r="K18">
-        <v>1.481368555470583</v>
+        <v>12.26507158053912</v>
       </c>
       <c r="L18">
-        <v>1.439431991298755</v>
+        <v>8.419018954674451</v>
       </c>
       <c r="M18">
-        <v>1.34587450339393</v>
+        <v>4.236480030549776</v>
       </c>
       <c r="N18">
-        <v>1.34587450339393</v>
+        <v>4.236480030549776</v>
       </c>
       <c r="O18">
-        <v>1.13282258678244</v>
+        <v>2.879337750520992</v>
       </c>
       <c r="P18">
-        <v>1.391039187419481</v>
+        <v>6.912677213879557</v>
       </c>
       <c r="Q18">
-        <v>1.391039187419481</v>
+        <v>6.912677213879557</v>
       </c>
       <c r="R18">
-        <v>1.413621529432256</v>
+        <v>8.250775805544448</v>
       </c>
       <c r="S18">
-        <v>1.413621529432256</v>
+        <v>8.250775805544448</v>
       </c>
       <c r="T18">
-        <v>2.112113694575009</v>
+        <v>4.296270011988958</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>2.756409525895673</v>
+        <v>1.058084202359294</v>
       </c>
       <c r="D19">
-        <v>1.403396854411131</v>
+        <v>1.090377536068439</v>
       </c>
       <c r="E19">
-        <v>2.756409525895673</v>
+        <v>1.058084202359294</v>
       </c>
       <c r="F19">
-        <v>0.8974266632613368</v>
+        <v>1.028073241892926</v>
       </c>
       <c r="G19">
-        <v>1.256771695307749</v>
+        <v>0.9770032097807069</v>
       </c>
       <c r="H19">
-        <v>0.5302882116152589</v>
+        <v>0.9763471619631469</v>
       </c>
       <c r="I19">
-        <v>9.048994450007898</v>
+        <v>1.163915367201085</v>
       </c>
       <c r="J19">
-        <v>1.403396854411131</v>
+        <v>1.090377536068439</v>
       </c>
       <c r="K19">
-        <v>1.403396854411131</v>
+        <v>1.090377536068439</v>
       </c>
       <c r="L19">
-        <v>0.8974266632613368</v>
+        <v>1.028073241892926</v>
       </c>
       <c r="M19">
-        <v>1.826918094578505</v>
+        <v>1.04307872212611</v>
       </c>
       <c r="N19">
-        <v>1.826918094578505</v>
+        <v>1.04307872212611</v>
       </c>
       <c r="O19">
-        <v>1.394708133590757</v>
+        <v>1.020834868738456</v>
       </c>
       <c r="P19">
-        <v>1.685744347856047</v>
+        <v>1.05884499344022</v>
       </c>
       <c r="Q19">
-        <v>1.685744347856047</v>
+        <v>1.05884499344022</v>
       </c>
       <c r="R19">
-        <v>1.615157474494818</v>
+        <v>1.066728129097274</v>
       </c>
       <c r="S19">
-        <v>1.615157474494818</v>
+        <v>1.066728129097274</v>
       </c>
       <c r="T19">
-        <v>2.648881233416508</v>
+        <v>1.048966786544266</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.077638796612605</v>
+        <v>1.0478262894412</v>
       </c>
       <c r="D20">
-        <v>1.08529084395685</v>
+        <v>1.113899009087697</v>
       </c>
       <c r="E20">
-        <v>1.077638796612605</v>
+        <v>1.0478262894412</v>
       </c>
       <c r="F20">
-        <v>1.0272287632226</v>
+        <v>1.041284570080262</v>
       </c>
       <c r="G20">
-        <v>0.9562575347818271</v>
+        <v>0.9776547460302408</v>
       </c>
       <c r="H20">
-        <v>0.9779705929743004</v>
+        <v>0.9785109269382176</v>
       </c>
       <c r="I20">
-        <v>1.136107240091607</v>
+        <v>1.32474150945272</v>
       </c>
       <c r="J20">
-        <v>1.08529084395685</v>
+        <v>1.113899009087697</v>
       </c>
       <c r="K20">
-        <v>1.08529084395685</v>
+        <v>1.113899009087697</v>
       </c>
       <c r="L20">
-        <v>1.0272287632226</v>
+        <v>1.041284570080262</v>
       </c>
       <c r="M20">
-        <v>1.052433779917602</v>
+        <v>1.044555429760731</v>
       </c>
       <c r="N20">
-        <v>1.052433779917602</v>
+        <v>1.044555429760731</v>
       </c>
       <c r="O20">
-        <v>1.027612717603168</v>
+        <v>1.02254059548656</v>
       </c>
       <c r="P20">
-        <v>1.063386134597352</v>
+        <v>1.067669956203053</v>
       </c>
       <c r="Q20">
-        <v>1.063386134597352</v>
+        <v>1.067669956203053</v>
       </c>
       <c r="R20">
-        <v>1.068862311937226</v>
+        <v>1.079227219424214</v>
       </c>
       <c r="S20">
-        <v>1.068862311937226</v>
+        <v>1.079227219424214</v>
       </c>
       <c r="T20">
-        <v>1.043415628606632</v>
+        <v>1.08065284183839</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.1013437432645</v>
+        <v>1.037225151812327</v>
       </c>
       <c r="D21">
-        <v>1.092574662375605</v>
+        <v>1.373463368956794</v>
       </c>
       <c r="E21">
-        <v>1.1013437432645</v>
+        <v>1.037225151812327</v>
       </c>
       <c r="F21">
-        <v>0.989564726014578</v>
+        <v>1.16873461494828</v>
       </c>
       <c r="G21">
-        <v>1.000228294379863</v>
+        <v>0.9277673632646669</v>
       </c>
       <c r="H21">
-        <v>0.9851652305916114</v>
+        <v>0.9725353433454496</v>
       </c>
       <c r="I21">
-        <v>1.12723990172779</v>
+        <v>1.279470034065652</v>
       </c>
       <c r="J21">
-        <v>1.092574662375605</v>
+        <v>1.373463368956794</v>
       </c>
       <c r="K21">
-        <v>1.092574662375605</v>
+        <v>1.373463368956794</v>
       </c>
       <c r="L21">
-        <v>0.989564726014578</v>
+        <v>1.16873461494828</v>
       </c>
       <c r="M21">
-        <v>1.045454234639539</v>
+        <v>1.102979883380304</v>
       </c>
       <c r="N21">
-        <v>1.045454234639539</v>
+        <v>1.102979883380304</v>
       </c>
       <c r="O21">
-        <v>1.025357899956896</v>
+        <v>1.059498370035352</v>
       </c>
       <c r="P21">
-        <v>1.061161043884894</v>
+        <v>1.193141045239134</v>
       </c>
       <c r="Q21">
-        <v>1.061161043884894</v>
+        <v>1.193141045239134</v>
       </c>
       <c r="R21">
-        <v>1.069014448507572</v>
+        <v>1.238221626168549</v>
       </c>
       <c r="S21">
-        <v>1.069014448507572</v>
+        <v>1.238221626168549</v>
       </c>
       <c r="T21">
-        <v>1.049352759725658</v>
+        <v>1.126532646065528</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.878288793278413</v>
+        <v>1.03674358039656</v>
       </c>
       <c r="D22">
-        <v>2.19500774440707</v>
+        <v>1.64619708387329</v>
       </c>
       <c r="E22">
-        <v>1.878288793278413</v>
+        <v>1.03674358039656</v>
       </c>
       <c r="F22">
-        <v>1.598475268085026</v>
+        <v>1.268053026656183</v>
       </c>
       <c r="G22">
-        <v>1.085991263936134</v>
+        <v>1.13110992103183</v>
       </c>
       <c r="H22">
-        <v>1.030994425126469</v>
+        <v>0.9536378273754985</v>
       </c>
       <c r="I22">
-        <v>1.236725628200517</v>
+        <v>1.935228769662612</v>
       </c>
       <c r="J22">
-        <v>2.19500774440707</v>
+        <v>1.64619708387329</v>
       </c>
       <c r="K22">
-        <v>2.19500774440707</v>
+        <v>1.64619708387329</v>
       </c>
       <c r="L22">
-        <v>1.598475268085026</v>
+        <v>1.268053026656183</v>
       </c>
       <c r="M22">
-        <v>1.73838203068172</v>
+        <v>1.152398303526372</v>
       </c>
       <c r="N22">
-        <v>1.73838203068172</v>
+        <v>1.152398303526372</v>
       </c>
       <c r="O22">
-        <v>1.502586162163303</v>
+        <v>1.086144811476081</v>
       </c>
       <c r="P22">
-        <v>1.890590601923503</v>
+        <v>1.316997896975344</v>
       </c>
       <c r="Q22">
-        <v>1.890590601923503</v>
+        <v>1.316997896975344</v>
       </c>
       <c r="R22">
-        <v>1.966694887544395</v>
+        <v>1.399297693699831</v>
       </c>
       <c r="S22">
-        <v>1.966694887544395</v>
+        <v>1.399297693699831</v>
       </c>
       <c r="T22">
-        <v>1.504247187172272</v>
+        <v>1.328495034832662</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.038342610712061</v>
+      </c>
+      <c r="D23">
+        <v>2.119166172420544</v>
+      </c>
+      <c r="E23">
+        <v>1.038342610712061</v>
+      </c>
+      <c r="F23">
+        <v>1.632996029710218</v>
+      </c>
+      <c r="G23">
+        <v>0.793503925600713</v>
+      </c>
+      <c r="H23">
+        <v>0.8648039329755087</v>
+      </c>
+      <c r="I23">
+        <v>1.927313955673331</v>
+      </c>
+      <c r="J23">
+        <v>2.119166172420544</v>
+      </c>
+      <c r="K23">
+        <v>2.119166172420544</v>
+      </c>
+      <c r="L23">
+        <v>1.632996029710218</v>
+      </c>
+      <c r="M23">
+        <v>1.33566932021114</v>
+      </c>
+      <c r="N23">
+        <v>1.33566932021114</v>
+      </c>
+      <c r="O23">
+        <v>1.178714191132596</v>
+      </c>
+      <c r="P23">
+        <v>1.596834937614274</v>
+      </c>
+      <c r="Q23">
+        <v>1.596834937614274</v>
+      </c>
+      <c r="R23">
+        <v>1.727417746315842</v>
+      </c>
+      <c r="S23">
+        <v>1.727417746315842</v>
+      </c>
+      <c r="T23">
+        <v>1.396021104515396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.01007200863557245</v>
+      </c>
+      <c r="D24">
+        <v>1.645091703518941</v>
+      </c>
+      <c r="E24">
+        <v>0.01007200863557245</v>
+      </c>
+      <c r="F24">
+        <v>0.3479448539887881</v>
+      </c>
+      <c r="G24">
+        <v>1.244459221634258</v>
+      </c>
+      <c r="H24">
+        <v>1.137948696465565</v>
+      </c>
+      <c r="I24">
+        <v>0.001600156892067721</v>
+      </c>
+      <c r="J24">
+        <v>1.645091703518941</v>
+      </c>
+      <c r="K24">
+        <v>1.645091703518941</v>
+      </c>
+      <c r="L24">
+        <v>0.3479448539887881</v>
+      </c>
+      <c r="M24">
+        <v>0.1790084313121803</v>
+      </c>
+      <c r="N24">
+        <v>0.1790084313121803</v>
+      </c>
+      <c r="O24">
+        <v>0.4986551863633085</v>
+      </c>
+      <c r="P24">
+        <v>0.6677028553811007</v>
+      </c>
+      <c r="Q24">
+        <v>0.6677028553811007</v>
+      </c>
+      <c r="R24">
+        <v>0.9120500674155609</v>
+      </c>
+      <c r="S24">
+        <v>0.9120500674155609</v>
+      </c>
+      <c r="T24">
+        <v>0.7311861068558655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.65007259725812</v>
+      </c>
+      <c r="D25">
+        <v>1.928466147286326</v>
+      </c>
+      <c r="E25">
+        <v>1.65007259725812</v>
+      </c>
+      <c r="F25">
+        <v>1.633539647079539</v>
+      </c>
+      <c r="G25">
+        <v>1.43629553007657</v>
+      </c>
+      <c r="H25">
+        <v>0.5302853793049361</v>
+      </c>
+      <c r="I25">
+        <v>0.0565668787269581</v>
+      </c>
+      <c r="J25">
+        <v>1.928466147286326</v>
+      </c>
+      <c r="K25">
+        <v>1.928466147286326</v>
+      </c>
+      <c r="L25">
+        <v>1.633539647079539</v>
+      </c>
+      <c r="M25">
+        <v>1.641806122168829</v>
+      </c>
+      <c r="N25">
+        <v>1.641806122168829</v>
+      </c>
+      <c r="O25">
+        <v>1.271299207880865</v>
+      </c>
+      <c r="P25">
+        <v>1.737359463874661</v>
+      </c>
+      <c r="Q25">
+        <v>1.737359463874661</v>
+      </c>
+      <c r="R25">
+        <v>1.785136134727577</v>
+      </c>
+      <c r="S25">
+        <v>1.785136134727577</v>
+      </c>
+      <c r="T25">
+        <v>1.205871029955408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.1381971188727057</v>
+      </c>
+      <c r="D26">
+        <v>0.4610160631614155</v>
+      </c>
+      <c r="E26">
+        <v>0.1381971188727057</v>
+      </c>
+      <c r="F26">
+        <v>0.475662596687031</v>
+      </c>
+      <c r="G26">
+        <v>0.6245017140196639</v>
+      </c>
+      <c r="H26">
+        <v>2.386402339852183</v>
+      </c>
+      <c r="I26">
+        <v>0.002274229037944546</v>
+      </c>
+      <c r="J26">
+        <v>0.4610160631614155</v>
+      </c>
+      <c r="K26">
+        <v>0.4610160631614155</v>
+      </c>
+      <c r="L26">
+        <v>0.475662596687031</v>
+      </c>
+      <c r="M26">
+        <v>0.3069298577798684</v>
+      </c>
+      <c r="N26">
+        <v>0.3069298577798684</v>
+      </c>
+      <c r="O26">
+        <v>1.000087351803973</v>
+      </c>
+      <c r="P26">
+        <v>0.3582919262403841</v>
+      </c>
+      <c r="Q26">
+        <v>0.3582919262403841</v>
+      </c>
+      <c r="R26">
+        <v>0.3839729604706419</v>
+      </c>
+      <c r="S26">
+        <v>0.3839729604706419</v>
+      </c>
+      <c r="T26">
+        <v>0.6813423436051572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.88377347901889</v>
+      </c>
+      <c r="D27">
+        <v>0.01876150673234562</v>
+      </c>
+      <c r="E27">
+        <v>1.88377347901889</v>
+      </c>
+      <c r="F27">
+        <v>1.200061392746518</v>
+      </c>
+      <c r="G27">
+        <v>0.3036276470584079</v>
+      </c>
+      <c r="H27">
+        <v>0.8012222478846385</v>
+      </c>
+      <c r="I27">
+        <v>0.0654776260176899</v>
+      </c>
+      <c r="J27">
+        <v>0.01876150673234562</v>
+      </c>
+      <c r="K27">
+        <v>0.01876150673234562</v>
+      </c>
+      <c r="L27">
+        <v>1.200061392746518</v>
+      </c>
+      <c r="M27">
+        <v>1.541917435882704</v>
+      </c>
+      <c r="N27">
+        <v>1.541917435882704</v>
+      </c>
+      <c r="O27">
+        <v>1.295019039883349</v>
+      </c>
+      <c r="P27">
+        <v>1.034198792832584</v>
+      </c>
+      <c r="Q27">
+        <v>1.034198792832585</v>
+      </c>
+      <c r="R27">
+        <v>0.7803394713075248</v>
+      </c>
+      <c r="S27">
+        <v>0.7803394713075248</v>
+      </c>
+      <c r="T27">
+        <v>0.7121539832430818</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.2119602387115359</v>
+      </c>
+      <c r="D28">
+        <v>8.772724083017868</v>
+      </c>
+      <c r="E28">
+        <v>0.2119602387115359</v>
+      </c>
+      <c r="F28">
+        <v>4.527437022550671</v>
+      </c>
+      <c r="G28">
+        <v>4.369455745238359</v>
+      </c>
+      <c r="H28">
+        <v>0.1965056318392167</v>
+      </c>
+      <c r="I28">
+        <v>1.607950620134847</v>
+      </c>
+      <c r="J28">
+        <v>8.772724083017868</v>
+      </c>
+      <c r="K28">
+        <v>8.772724083017868</v>
+      </c>
+      <c r="L28">
+        <v>4.527437022550671</v>
+      </c>
+      <c r="M28">
+        <v>2.369698630631104</v>
+      </c>
+      <c r="N28">
+        <v>2.369698630631104</v>
+      </c>
+      <c r="O28">
+        <v>1.645300964367141</v>
+      </c>
+      <c r="P28">
+        <v>4.504040448093359</v>
+      </c>
+      <c r="Q28">
+        <v>4.504040448093359</v>
+      </c>
+      <c r="R28">
+        <v>5.571211356824486</v>
+      </c>
+      <c r="S28">
+        <v>5.571211356824486</v>
+      </c>
+      <c r="T28">
+        <v>3.281005556915417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.4159894238974373</v>
+      </c>
+      <c r="D29">
+        <v>6.19162732043984</v>
+      </c>
+      <c r="E29">
+        <v>0.4159894238974373</v>
+      </c>
+      <c r="F29">
+        <v>3.374271303426402</v>
+      </c>
+      <c r="G29">
+        <v>3.225905304178735</v>
+      </c>
+      <c r="H29">
+        <v>0.3910147311878817</v>
+      </c>
+      <c r="I29">
+        <v>3.308380466827893</v>
+      </c>
+      <c r="J29">
+        <v>6.19162732043984</v>
+      </c>
+      <c r="K29">
+        <v>6.19162732043984</v>
+      </c>
+      <c r="L29">
+        <v>3.374271303426402</v>
+      </c>
+      <c r="M29">
+        <v>1.895130363661919</v>
+      </c>
+      <c r="N29">
+        <v>1.895130363661919</v>
+      </c>
+      <c r="O29">
+        <v>1.393758486170573</v>
+      </c>
+      <c r="P29">
+        <v>3.327296015921226</v>
+      </c>
+      <c r="Q29">
+        <v>3.327296015921226</v>
+      </c>
+      <c r="R29">
+        <v>4.043378842050879</v>
+      </c>
+      <c r="S29">
+        <v>4.043378842050879</v>
+      </c>
+      <c r="T29">
+        <v>2.817864758326365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.252317015489105</v>
+      </c>
+      <c r="D30">
+        <v>1.481368555470583</v>
+      </c>
+      <c r="E30">
+        <v>1.252317015489105</v>
+      </c>
+      <c r="F30">
+        <v>1.439431991298755</v>
+      </c>
+      <c r="G30">
+        <v>0.9491864761870178</v>
+      </c>
+      <c r="H30">
+        <v>0.7067187535594595</v>
+      </c>
+      <c r="I30">
+        <v>6.843659375445136</v>
+      </c>
+      <c r="J30">
+        <v>1.481368555470583</v>
+      </c>
+      <c r="K30">
+        <v>1.481368555470583</v>
+      </c>
+      <c r="L30">
+        <v>1.439431991298755</v>
+      </c>
+      <c r="M30">
+        <v>1.34587450339393</v>
+      </c>
+      <c r="N30">
+        <v>1.34587450339393</v>
+      </c>
+      <c r="O30">
+        <v>1.13282258678244</v>
+      </c>
+      <c r="P30">
+        <v>1.391039187419481</v>
+      </c>
+      <c r="Q30">
+        <v>1.391039187419481</v>
+      </c>
+      <c r="R30">
+        <v>1.413621529432256</v>
+      </c>
+      <c r="S30">
+        <v>1.413621529432256</v>
+      </c>
+      <c r="T30">
+        <v>2.112113694575009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>2.756409525895673</v>
+      </c>
+      <c r="D31">
+        <v>1.403396854411131</v>
+      </c>
+      <c r="E31">
+        <v>2.756409525895673</v>
+      </c>
+      <c r="F31">
+        <v>0.8974266632613368</v>
+      </c>
+      <c r="G31">
+        <v>1.256771695307749</v>
+      </c>
+      <c r="H31">
+        <v>0.5302882116152589</v>
+      </c>
+      <c r="I31">
+        <v>9.048994450007898</v>
+      </c>
+      <c r="J31">
+        <v>1.403396854411131</v>
+      </c>
+      <c r="K31">
+        <v>1.403396854411131</v>
+      </c>
+      <c r="L31">
+        <v>0.8974266632613368</v>
+      </c>
+      <c r="M31">
+        <v>1.826918094578505</v>
+      </c>
+      <c r="N31">
+        <v>1.826918094578505</v>
+      </c>
+      <c r="O31">
+        <v>1.394708133590757</v>
+      </c>
+      <c r="P31">
+        <v>1.685744347856047</v>
+      </c>
+      <c r="Q31">
+        <v>1.685744347856047</v>
+      </c>
+      <c r="R31">
+        <v>1.615157474494818</v>
+      </c>
+      <c r="S31">
+        <v>1.615157474494818</v>
+      </c>
+      <c r="T31">
+        <v>2.648881233416508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.007355574112876711</v>
+      </c>
+      <c r="D32">
+        <v>12.03672079550686</v>
+      </c>
+      <c r="E32">
+        <v>0.007355574112876711</v>
+      </c>
+      <c r="F32">
+        <v>6.021575615019177</v>
+      </c>
+      <c r="G32">
+        <v>5.43585504290685</v>
+      </c>
+      <c r="H32">
+        <v>0.00152872221369863</v>
+      </c>
+      <c r="I32">
+        <v>0.008836748638356165</v>
+      </c>
+      <c r="J32">
+        <v>12.03672079550686</v>
+      </c>
+      <c r="K32">
+        <v>12.03672079550686</v>
+      </c>
+      <c r="L32">
+        <v>6.021575615019177</v>
+      </c>
+      <c r="M32">
+        <v>3.014465594566027</v>
+      </c>
+      <c r="N32">
+        <v>3.014465594566027</v>
+      </c>
+      <c r="O32">
+        <v>2.010153303781918</v>
+      </c>
+      <c r="P32">
+        <v>6.021883994879637</v>
+      </c>
+      <c r="Q32">
+        <v>6.021883994879637</v>
+      </c>
+      <c r="R32">
+        <v>7.525593195036442</v>
+      </c>
+      <c r="S32">
+        <v>7.525593195036442</v>
+      </c>
+      <c r="T32">
+        <v>3.918645416399636</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>3.577301299625789</v>
+      </c>
+      <c r="D33">
+        <v>5.178183145965789</v>
+      </c>
+      <c r="E33">
+        <v>3.577301299625789</v>
+      </c>
+      <c r="F33">
+        <v>2.581179141198684</v>
+      </c>
+      <c r="G33">
+        <v>0.8132101462021052</v>
+      </c>
+      <c r="H33">
+        <v>0.001370283013157895</v>
+      </c>
+      <c r="I33">
+        <v>12.82462972165843</v>
+      </c>
+      <c r="J33">
+        <v>5.178183145965789</v>
+      </c>
+      <c r="K33">
+        <v>5.178183145965789</v>
+      </c>
+      <c r="L33">
+        <v>2.581179141198684</v>
+      </c>
+      <c r="M33">
+        <v>3.079240220412236</v>
+      </c>
+      <c r="N33">
+        <v>3.079240220412236</v>
+      </c>
+      <c r="O33">
+        <v>2.053283574612544</v>
+      </c>
+      <c r="P33">
+        <v>3.778887862263421</v>
+      </c>
+      <c r="Q33">
+        <v>3.778887862263421</v>
+      </c>
+      <c r="R33">
+        <v>4.128711683189013</v>
+      </c>
+      <c r="S33">
+        <v>4.128711683189013</v>
+      </c>
+      <c r="T33">
+        <v>4.162645622943993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>3.577255539067369</v>
+      </c>
+      <c r="D34">
+        <v>5.178160577926842</v>
+      </c>
+      <c r="E34">
+        <v>3.577255539067369</v>
+      </c>
+      <c r="F34">
+        <v>2.581158208672474</v>
+      </c>
+      <c r="G34">
+        <v>0.813207712042105</v>
+      </c>
+      <c r="H34">
+        <v>0.001372543362631579</v>
+      </c>
+      <c r="I34">
+        <v>12.82456598210579</v>
+      </c>
+      <c r="J34">
+        <v>5.178160577926842</v>
+      </c>
+      <c r="K34">
+        <v>5.178160577926842</v>
+      </c>
+      <c r="L34">
+        <v>2.581158208672474</v>
+      </c>
+      <c r="M34">
+        <v>3.079206873869921</v>
+      </c>
+      <c r="N34">
+        <v>3.079206873869921</v>
+      </c>
+      <c r="O34">
+        <v>2.053262097034158</v>
+      </c>
+      <c r="P34">
+        <v>3.778858108555562</v>
+      </c>
+      <c r="Q34">
+        <v>3.778858108555561</v>
+      </c>
+      <c r="R34">
+        <v>4.128683725898381</v>
+      </c>
+      <c r="S34">
+        <v>4.128683725898381</v>
+      </c>
+      <c r="T34">
+        <v>4.162620093862868</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4220498030888022</v>
+      </c>
+      <c r="D35">
+        <v>0.4755508055567425</v>
+      </c>
+      <c r="E35">
+        <v>0.4220498030888022</v>
+      </c>
+      <c r="F35">
+        <v>0.505594680537832</v>
+      </c>
+      <c r="G35">
+        <v>0.4613728150596415</v>
+      </c>
+      <c r="H35">
+        <v>0.3908309532960863</v>
+      </c>
+      <c r="I35">
+        <v>93.97462153125485</v>
+      </c>
+      <c r="J35">
+        <v>0.4755508055567425</v>
+      </c>
+      <c r="K35">
+        <v>0.4755508055567425</v>
+      </c>
+      <c r="L35">
+        <v>0.505594680537832</v>
+      </c>
+      <c r="M35">
+        <v>0.4638222418133171</v>
+      </c>
+      <c r="N35">
+        <v>0.4638222418133171</v>
+      </c>
+      <c r="O35">
+        <v>0.4394918123075735</v>
+      </c>
+      <c r="P35">
+        <v>0.4677317630611256</v>
+      </c>
+      <c r="Q35">
+        <v>0.4677317630611256</v>
+      </c>
+      <c r="R35">
+        <v>0.4696865236850298</v>
+      </c>
+      <c r="S35">
+        <v>0.4696865236850298</v>
+      </c>
+      <c r="T35">
+        <v>16.03833676479899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.077638796612605</v>
+      </c>
+      <c r="D36">
+        <v>1.08529084395685</v>
+      </c>
+      <c r="E36">
+        <v>1.077638796612605</v>
+      </c>
+      <c r="F36">
+        <v>1.0272287632226</v>
+      </c>
+      <c r="G36">
+        <v>0.9562575347818271</v>
+      </c>
+      <c r="H36">
+        <v>0.9779705929743004</v>
+      </c>
+      <c r="I36">
+        <v>1.136107240091607</v>
+      </c>
+      <c r="J36">
+        <v>1.08529084395685</v>
+      </c>
+      <c r="K36">
+        <v>1.08529084395685</v>
+      </c>
+      <c r="L36">
+        <v>1.0272287632226</v>
+      </c>
+      <c r="M36">
+        <v>1.052433779917602</v>
+      </c>
+      <c r="N36">
+        <v>1.052433779917602</v>
+      </c>
+      <c r="O36">
+        <v>1.027612717603168</v>
+      </c>
+      <c r="P36">
+        <v>1.063386134597352</v>
+      </c>
+      <c r="Q36">
+        <v>1.063386134597352</v>
+      </c>
+      <c r="R36">
+        <v>1.068862311937226</v>
+      </c>
+      <c r="S36">
+        <v>1.068862311937226</v>
+      </c>
+      <c r="T36">
+        <v>1.043415628606632</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.1013437432645</v>
+      </c>
+      <c r="D37">
+        <v>1.092574662375605</v>
+      </c>
+      <c r="E37">
+        <v>1.1013437432645</v>
+      </c>
+      <c r="F37">
+        <v>0.989564726014578</v>
+      </c>
+      <c r="G37">
+        <v>1.000228294379863</v>
+      </c>
+      <c r="H37">
+        <v>0.9851652305916114</v>
+      </c>
+      <c r="I37">
+        <v>1.12723990172779</v>
+      </c>
+      <c r="J37">
+        <v>1.092574662375605</v>
+      </c>
+      <c r="K37">
+        <v>1.092574662375605</v>
+      </c>
+      <c r="L37">
+        <v>0.989564726014578</v>
+      </c>
+      <c r="M37">
+        <v>1.045454234639539</v>
+      </c>
+      <c r="N37">
+        <v>1.045454234639539</v>
+      </c>
+      <c r="O37">
+        <v>1.025357899956896</v>
+      </c>
+      <c r="P37">
+        <v>1.061161043884894</v>
+      </c>
+      <c r="Q37">
+        <v>1.061161043884894</v>
+      </c>
+      <c r="R37">
+        <v>1.069014448507572</v>
+      </c>
+      <c r="S37">
+        <v>1.069014448507572</v>
+      </c>
+      <c r="T37">
+        <v>1.049352759725658</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.878288793278413</v>
+      </c>
+      <c r="D38">
+        <v>2.19500774440707</v>
+      </c>
+      <c r="E38">
+        <v>1.878288793278413</v>
+      </c>
+      <c r="F38">
+        <v>1.598475268085026</v>
+      </c>
+      <c r="G38">
+        <v>1.085991263936134</v>
+      </c>
+      <c r="H38">
+        <v>1.030994425126469</v>
+      </c>
+      <c r="I38">
+        <v>1.236725628200517</v>
+      </c>
+      <c r="J38">
+        <v>2.19500774440707</v>
+      </c>
+      <c r="K38">
+        <v>2.19500774440707</v>
+      </c>
+      <c r="L38">
+        <v>1.598475268085026</v>
+      </c>
+      <c r="M38">
+        <v>1.73838203068172</v>
+      </c>
+      <c r="N38">
+        <v>1.73838203068172</v>
+      </c>
+      <c r="O38">
+        <v>1.502586162163303</v>
+      </c>
+      <c r="P38">
+        <v>1.890590601923503</v>
+      </c>
+      <c r="Q38">
+        <v>1.890590601923503</v>
+      </c>
+      <c r="R38">
+        <v>1.966694887544395</v>
+      </c>
+      <c r="S38">
+        <v>1.966694887544395</v>
+      </c>
+      <c r="T38">
+        <v>1.504247187172272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>2.790966451419252</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9429926718960335</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>2.790966451419252</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.6774857153846733</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.752577089019802</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.900839153314214</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.984226217357671</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9429926718960335</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9429926718960335</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.6774857153846733</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.734226083401962</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.734226083401962</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.456430440039379</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.470481612899986</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.470481612899986</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.338609377648998</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.338609377648998</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.508181216398608</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.944139154143614</v>
+      </c>
+      <c r="D40">
+        <v>1.644023908283833</v>
+      </c>
+      <c r="E40">
+        <v>0.944139154143614</v>
+      </c>
+      <c r="F40">
+        <v>1.238627778224583</v>
+      </c>
+      <c r="G40">
+        <v>0.9906903204913647</v>
+      </c>
+      <c r="H40">
+        <v>0.8318505109804277</v>
+      </c>
+      <c r="I40">
+        <v>1.136760130544831</v>
+      </c>
+      <c r="J40">
+        <v>1.644023908283833</v>
+      </c>
+      <c r="K40">
+        <v>1.644023908283833</v>
+      </c>
+      <c r="L40">
+        <v>1.238627778224583</v>
+      </c>
+      <c r="M40">
+        <v>1.091383466184098</v>
+      </c>
+      <c r="N40">
+        <v>1.091383466184098</v>
+      </c>
+      <c r="O40">
+        <v>1.004872481116208</v>
+      </c>
+      <c r="P40">
+        <v>1.27559694688401</v>
+      </c>
+      <c r="Q40">
+        <v>1.27559694688401</v>
+      </c>
+      <c r="R40">
+        <v>1.367703687233965</v>
+      </c>
+      <c r="S40">
+        <v>1.367703687233965</v>
+      </c>
+      <c r="T40">
+        <v>1.131015300444776</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.311609866114888</v>
+      </c>
+      <c r="D41">
+        <v>1.048452520898742</v>
+      </c>
+      <c r="E41">
+        <v>1.311609866114888</v>
+      </c>
+      <c r="F41">
+        <v>0.9032933868852366</v>
+      </c>
+      <c r="G41">
+        <v>0.9258561984045387</v>
+      </c>
+      <c r="H41">
+        <v>1.084125049751725</v>
+      </c>
+      <c r="I41">
+        <v>1.002430475423611</v>
+      </c>
+      <c r="J41">
+        <v>1.048452520898742</v>
+      </c>
+      <c r="K41">
+        <v>1.048452520898742</v>
+      </c>
+      <c r="L41">
+        <v>0.9032933868852366</v>
+      </c>
+      <c r="M41">
+        <v>1.107451626500062</v>
+      </c>
+      <c r="N41">
+        <v>1.107451626500062</v>
+      </c>
+      <c r="O41">
+        <v>1.099676100917283</v>
+      </c>
+      <c r="P41">
+        <v>1.087785257966289</v>
+      </c>
+      <c r="Q41">
+        <v>1.087785257966289</v>
+      </c>
+      <c r="R41">
+        <v>1.077952073699402</v>
+      </c>
+      <c r="S41">
+        <v>1.077952073699402</v>
+      </c>
+      <c r="T41">
+        <v>1.04596124957979</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.1200222298293657</v>
+      </c>
+      <c r="D42">
+        <v>2.049535219731571</v>
+      </c>
+      <c r="E42">
+        <v>0.1200222298293657</v>
+      </c>
+      <c r="F42">
+        <v>1.311026316037041</v>
+      </c>
+      <c r="G42">
+        <v>1.380526130584593</v>
+      </c>
+      <c r="H42">
+        <v>0.5987254510899461</v>
+      </c>
+      <c r="I42">
+        <v>1.101735800557035</v>
+      </c>
+      <c r="J42">
+        <v>2.049535219731571</v>
+      </c>
+      <c r="K42">
+        <v>2.049535219731571</v>
+      </c>
+      <c r="L42">
+        <v>1.311026316037041</v>
+      </c>
+      <c r="M42">
+        <v>0.7155242729332036</v>
+      </c>
+      <c r="N42">
+        <v>0.7155242729332036</v>
+      </c>
+      <c r="O42">
+        <v>0.6765913323187845</v>
+      </c>
+      <c r="P42">
+        <v>1.160194588532659</v>
+      </c>
+      <c r="Q42">
+        <v>1.160194588532659</v>
+      </c>
+      <c r="R42">
+        <v>1.382529746332387</v>
+      </c>
+      <c r="S42">
+        <v>1.382529746332387</v>
+      </c>
+      <c r="T42">
+        <v>1.093595191304925</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW03.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.563249921210121</v>
+        <v>1.0478262894412</v>
       </c>
       <c r="D3">
-        <v>1.022537693153551</v>
+        <v>1.113899009087697</v>
       </c>
       <c r="E3">
-        <v>1.278925130842034</v>
+        <v>1.0478262894412</v>
       </c>
       <c r="F3">
-        <v>1.563249921210121</v>
+        <v>1.041284570080262</v>
       </c>
       <c r="G3">
-        <v>1.155134804645928</v>
+        <v>0.9776547460302408</v>
       </c>
       <c r="H3">
-        <v>0.9489219504522401</v>
+        <v>0.9785109269382176</v>
       </c>
       <c r="I3">
-        <v>1.162250653953762</v>
+        <v>1.32474150945272</v>
       </c>
       <c r="J3">
-        <v>1.022537693153551</v>
+        <v>1.113899009087697</v>
       </c>
       <c r="K3">
-        <v>1.563249921210121</v>
+        <v>1.113899009087697</v>
       </c>
       <c r="L3">
-        <v>1.278925130842034</v>
+        <v>1.041284570080262</v>
       </c>
       <c r="M3">
-        <v>1.150731411997792</v>
+        <v>1.044555429760731</v>
       </c>
       <c r="N3">
-        <v>1.150731411997792</v>
+        <v>1.044555429760731</v>
       </c>
       <c r="O3">
-        <v>1.083461591482608</v>
+        <v>1.02254059548656</v>
       </c>
       <c r="P3">
-        <v>1.288237581735235</v>
+        <v>1.067669956203053</v>
       </c>
       <c r="Q3">
-        <v>1.288237581735235</v>
+        <v>1.067669956203053</v>
       </c>
       <c r="R3">
-        <v>1.356990666603957</v>
+        <v>1.079227219424214</v>
       </c>
       <c r="S3">
-        <v>1.356990666603957</v>
+        <v>1.079227219424214</v>
       </c>
       <c r="T3">
-        <v>1.188503359042939</v>
+        <v>1.08065284183839</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.38256525955612</v>
+        <v>0.944139154143614</v>
       </c>
       <c r="D4">
-        <v>1.453259462746687</v>
+        <v>1.644023908283833</v>
       </c>
       <c r="E4">
-        <v>1.594093757720581</v>
+        <v>0.944139154143614</v>
       </c>
       <c r="F4">
-        <v>2.38256525955612</v>
+        <v>1.238627778224583</v>
       </c>
       <c r="G4">
-        <v>1.292827208771685</v>
+        <v>0.9906903204913647</v>
       </c>
       <c r="H4">
-        <v>0.8966400028767746</v>
+        <v>0.8318505109804277</v>
       </c>
       <c r="I4">
-        <v>1.555935927545614</v>
+        <v>1.136760130544831</v>
       </c>
       <c r="J4">
-        <v>1.453259462746687</v>
+        <v>1.644023908283833</v>
       </c>
       <c r="K4">
-        <v>2.38256525955612</v>
+        <v>1.644023908283833</v>
       </c>
       <c r="L4">
-        <v>1.594093757720581</v>
+        <v>1.238627778224583</v>
       </c>
       <c r="M4">
-        <v>1.523676610233634</v>
+        <v>1.091383466184098</v>
       </c>
       <c r="N4">
-        <v>1.523676610233634</v>
+        <v>1.091383466184098</v>
       </c>
       <c r="O4">
-        <v>1.314664407781348</v>
+        <v>1.004872481116208</v>
       </c>
       <c r="P4">
-        <v>1.809972826674463</v>
+        <v>1.27559694688401</v>
       </c>
       <c r="Q4">
-        <v>1.809972826674463</v>
+        <v>1.27559694688401</v>
       </c>
       <c r="R4">
-        <v>1.953120934894877</v>
+        <v>1.367703687233965</v>
       </c>
       <c r="S4">
-        <v>1.953120934894877</v>
+        <v>1.367703687233965</v>
       </c>
       <c r="T4">
-        <v>1.529220269869577</v>
+        <v>1.131015300444776</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5.874626228595446</v>
+        <v>0.8245988477892644</v>
       </c>
       <c r="D5">
-        <v>4.329996204023808</v>
+        <v>1.241518653097417</v>
       </c>
       <c r="E5">
-        <v>3.064112085106716</v>
+        <v>0.8245988477892644</v>
       </c>
       <c r="F5">
-        <v>5.874626228595446</v>
+        <v>1.14064159226147</v>
       </c>
       <c r="G5">
-        <v>2.872149357749743</v>
+        <v>1.018761293239957</v>
       </c>
       <c r="H5">
-        <v>1.206673323736861</v>
+        <v>0.7337219495375592</v>
       </c>
       <c r="I5">
-        <v>3.620066863740214</v>
+        <v>10.83646012326775</v>
       </c>
       <c r="J5">
-        <v>4.329996204023808</v>
+        <v>1.241518653097417</v>
       </c>
       <c r="K5">
-        <v>5.874626228595446</v>
+        <v>1.241518653097417</v>
       </c>
       <c r="L5">
-        <v>3.064112085106716</v>
+        <v>1.14064159226147</v>
       </c>
       <c r="M5">
-        <v>3.697054144565262</v>
+        <v>0.9826202200253673</v>
       </c>
       <c r="N5">
-        <v>3.697054144565262</v>
+        <v>0.9826202200253673</v>
       </c>
       <c r="O5">
-        <v>2.866927204289128</v>
+        <v>0.8996541298627646</v>
       </c>
       <c r="P5">
-        <v>4.422911505908656</v>
+        <v>1.06891969771605</v>
       </c>
       <c r="Q5">
-        <v>4.422911505908656</v>
+        <v>1.06891969771605</v>
       </c>
       <c r="R5">
-        <v>4.785840186580353</v>
+        <v>1.112069436561392</v>
       </c>
       <c r="S5">
-        <v>4.785840186580353</v>
+        <v>1.112069436561392</v>
       </c>
       <c r="T5">
-        <v>3.494604010492131</v>
+        <v>2.632617076532237</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>12.26507158053912</v>
+        <v>0.4220498030888022</v>
       </c>
       <c r="D6">
-        <v>0.05394110642510113</v>
+        <v>0.4755508055567425</v>
       </c>
       <c r="E6">
-        <v>8.419018954674451</v>
+        <v>0.4220498030888022</v>
       </c>
       <c r="F6">
-        <v>12.26507158053912</v>
+        <v>0.505594680537832</v>
       </c>
       <c r="G6">
-        <v>3.104802674869862</v>
+        <v>0.4613728150596415</v>
       </c>
       <c r="H6">
-        <v>0.1650531904634235</v>
+        <v>0.3908309532960863</v>
       </c>
       <c r="I6">
-        <v>1.769732564961791</v>
+        <v>93.97462153125485</v>
       </c>
       <c r="J6">
-        <v>0.05394110642510113</v>
+        <v>0.4755508055567425</v>
       </c>
       <c r="K6">
-        <v>12.26507158053912</v>
+        <v>0.4755508055567425</v>
       </c>
       <c r="L6">
-        <v>8.419018954674451</v>
+        <v>0.505594680537832</v>
       </c>
       <c r="M6">
-        <v>4.236480030549776</v>
+        <v>0.4638222418133171</v>
       </c>
       <c r="N6">
-        <v>4.236480030549776</v>
+        <v>0.4638222418133171</v>
       </c>
       <c r="O6">
-        <v>2.879337750520992</v>
+        <v>0.4394918123075735</v>
       </c>
       <c r="P6">
-        <v>6.912677213879557</v>
+        <v>0.4677317630611256</v>
       </c>
       <c r="Q6">
-        <v>6.912677213879557</v>
+        <v>0.4677317630611256</v>
       </c>
       <c r="R6">
-        <v>8.250775805544448</v>
+        <v>0.4696865236850298</v>
       </c>
       <c r="S6">
-        <v>8.250775805544448</v>
+        <v>0.4696865236850298</v>
       </c>
       <c r="T6">
-        <v>4.296270011988958</v>
+        <v>16.03833676479899</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.090377536068439</v>
+        <v>1.017105050004865</v>
       </c>
       <c r="D7">
-        <v>1.058084202359294</v>
+        <v>1.540223002437691</v>
       </c>
       <c r="E7">
-        <v>1.028073241892927</v>
+        <v>1.017105050004865</v>
       </c>
       <c r="F7">
-        <v>1.090377536068439</v>
+        <v>1.234741558948977</v>
       </c>
       <c r="G7">
-        <v>1.163915367201085</v>
+        <v>1.180108663615856</v>
       </c>
       <c r="H7">
-        <v>0.9763471619631471</v>
+        <v>0.9308663891584225</v>
       </c>
       <c r="I7">
-        <v>0.9770032097807065</v>
+        <v>1.076657622157771</v>
       </c>
       <c r="J7">
-        <v>1.058084202359294</v>
+        <v>1.540223002437691</v>
       </c>
       <c r="K7">
-        <v>1.090377536068439</v>
+        <v>1.540223002437691</v>
       </c>
       <c r="L7">
-        <v>1.028073241892927</v>
+        <v>1.234741558948977</v>
       </c>
       <c r="M7">
-        <v>1.04307872212611</v>
+        <v>1.125923304476921</v>
       </c>
       <c r="N7">
-        <v>1.04307872212611</v>
+        <v>1.125923304476921</v>
       </c>
       <c r="O7">
-        <v>1.020834868738456</v>
+        <v>1.060904332704088</v>
       </c>
       <c r="P7">
-        <v>1.05884499344022</v>
+        <v>1.264023203797177</v>
       </c>
       <c r="Q7">
-        <v>1.05884499344022</v>
+        <v>1.264023203797177</v>
       </c>
       <c r="R7">
-        <v>1.066728129097275</v>
+        <v>1.333073153457306</v>
       </c>
       <c r="S7">
-        <v>1.066728129097275</v>
+        <v>1.333073153457306</v>
       </c>
       <c r="T7">
-        <v>1.048966786544266</v>
+        <v>1.163283714387264</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.113899009087697</v>
+        <v>1.1013437432645</v>
       </c>
       <c r="D8">
-        <v>1.0478262894412</v>
+        <v>1.092574662375605</v>
       </c>
       <c r="E8">
-        <v>1.041284570080264</v>
+        <v>1.1013437432645</v>
       </c>
       <c r="F8">
-        <v>1.113899009087697</v>
+        <v>0.989564726014578</v>
       </c>
       <c r="G8">
-        <v>1.324741509452689</v>
+        <v>1.000228294379863</v>
       </c>
       <c r="H8">
-        <v>0.9785109269382184</v>
+        <v>0.9851652305916114</v>
       </c>
       <c r="I8">
-        <v>0.9776547460302413</v>
+        <v>1.12723990172779</v>
       </c>
       <c r="J8">
-        <v>1.0478262894412</v>
+        <v>1.092574662375605</v>
       </c>
       <c r="K8">
-        <v>1.113899009087697</v>
+        <v>1.092574662375605</v>
       </c>
       <c r="L8">
-        <v>1.041284570080264</v>
+        <v>0.989564726014578</v>
       </c>
       <c r="M8">
-        <v>1.044555429760732</v>
+        <v>1.045454234639539</v>
       </c>
       <c r="N8">
-        <v>1.044555429760732</v>
+        <v>1.045454234639539</v>
       </c>
       <c r="O8">
-        <v>1.022540595486561</v>
+        <v>1.025357899956896</v>
       </c>
       <c r="P8">
-        <v>1.067669956203054</v>
+        <v>1.061161043884894</v>
       </c>
       <c r="Q8">
-        <v>1.067669956203054</v>
+        <v>1.061161043884894</v>
       </c>
       <c r="R8">
-        <v>1.079227219424215</v>
+        <v>1.069014448507572</v>
       </c>
       <c r="S8">
-        <v>1.079227219424215</v>
+        <v>1.069014448507572</v>
       </c>
       <c r="T8">
-        <v>1.080652841838385</v>
+        <v>1.049352759725658</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.373463368956793</v>
+        <v>1.453259462746687</v>
       </c>
       <c r="D9">
-        <v>1.037225151812327</v>
+        <v>2.38256525955612</v>
       </c>
       <c r="E9">
-        <v>1.168734614948281</v>
+        <v>1.453259462746687</v>
       </c>
       <c r="F9">
-        <v>1.373463368956793</v>
+        <v>1.594093757720581</v>
       </c>
       <c r="G9">
-        <v>1.279470034065652</v>
+        <v>1.555935927545614</v>
       </c>
       <c r="H9">
-        <v>0.9725353433454496</v>
+        <v>0.8966400028767746</v>
       </c>
       <c r="I9">
-        <v>0.9277673632646668</v>
+        <v>1.292827208771685</v>
       </c>
       <c r="J9">
-        <v>1.037225151812327</v>
+        <v>2.38256525955612</v>
       </c>
       <c r="K9">
-        <v>1.373463368956793</v>
+        <v>2.38256525955612</v>
       </c>
       <c r="L9">
-        <v>1.168734614948281</v>
+        <v>1.594093757720581</v>
       </c>
       <c r="M9">
-        <v>1.102979883380304</v>
+        <v>1.523676610233634</v>
       </c>
       <c r="N9">
-        <v>1.102979883380304</v>
+        <v>1.523676610233634</v>
       </c>
       <c r="O9">
-        <v>1.059498370035352</v>
+        <v>1.314664407781348</v>
       </c>
       <c r="P9">
-        <v>1.193141045239134</v>
+        <v>1.809972826674463</v>
       </c>
       <c r="Q9">
-        <v>1.193141045239134</v>
+        <v>1.809972826674463</v>
       </c>
       <c r="R9">
-        <v>1.238221626168549</v>
+        <v>1.953120934894877</v>
       </c>
       <c r="S9">
-        <v>1.238221626168549</v>
+        <v>1.953120934894877</v>
       </c>
       <c r="T9">
-        <v>1.126532646065528</v>
+        <v>1.529220269869577</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.64619708387329</v>
+        <v>0.6243490048365364</v>
       </c>
       <c r="D10">
-        <v>1.03674358039656</v>
+        <v>0.4437494295472709</v>
       </c>
       <c r="E10">
-        <v>1.268053026656183</v>
+        <v>0.6243490048365364</v>
       </c>
       <c r="F10">
-        <v>1.64619708387329</v>
+        <v>0.4528004232690946</v>
       </c>
       <c r="G10">
-        <v>1.935228769662612</v>
+        <v>0.446761014765865</v>
       </c>
       <c r="H10">
-        <v>0.9536378273754985</v>
+        <v>0.3333198113456903</v>
       </c>
       <c r="I10">
-        <v>1.13110992103183</v>
+        <v>95.1184484579383</v>
       </c>
       <c r="J10">
-        <v>1.03674358039656</v>
+        <v>0.4437494295472709</v>
       </c>
       <c r="K10">
-        <v>1.64619708387329</v>
+        <v>0.4437494295472709</v>
       </c>
       <c r="L10">
-        <v>1.268053026656183</v>
+        <v>0.4528004232690946</v>
       </c>
       <c r="M10">
-        <v>1.152398303526372</v>
+        <v>0.5385747140528155</v>
       </c>
       <c r="N10">
-        <v>1.152398303526372</v>
+        <v>0.5385747140528155</v>
       </c>
       <c r="O10">
-        <v>1.086144811476081</v>
+        <v>0.4701564131504405</v>
       </c>
       <c r="P10">
-        <v>1.316997896975344</v>
+        <v>0.5069662858843006</v>
       </c>
       <c r="Q10">
-        <v>1.316997896975344</v>
+        <v>0.5069662858843006</v>
       </c>
       <c r="R10">
-        <v>1.399297693699831</v>
+        <v>0.4911620718000432</v>
       </c>
       <c r="S10">
-        <v>1.399297693699831</v>
+        <v>0.4911620718000432</v>
       </c>
       <c r="T10">
-        <v>1.328495034832662</v>
+        <v>16.23657135695046</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.119166172420544</v>
+        <v>1.001017350225919</v>
       </c>
       <c r="D11">
-        <v>1.038342610712063</v>
+        <v>1.681562057641774</v>
       </c>
       <c r="E11">
-        <v>1.632996029710218</v>
+        <v>1.001017350225919</v>
       </c>
       <c r="F11">
-        <v>2.119166172420544</v>
+        <v>1.179606051218445</v>
       </c>
       <c r="G11">
-        <v>1.927313955673331</v>
+        <v>1.025592246117646</v>
       </c>
       <c r="H11">
-        <v>0.8648039329755089</v>
+        <v>0.9176060938517526</v>
       </c>
       <c r="I11">
-        <v>0.793503925600713</v>
+        <v>0.8660342940794132</v>
       </c>
       <c r="J11">
-        <v>1.038342610712063</v>
+        <v>1.681562057641774</v>
       </c>
       <c r="K11">
-        <v>2.119166172420544</v>
+        <v>1.681562057641774</v>
       </c>
       <c r="L11">
-        <v>1.632996029710218</v>
+        <v>1.179606051218445</v>
       </c>
       <c r="M11">
-        <v>1.33566932021114</v>
+        <v>1.090311700722182</v>
       </c>
       <c r="N11">
-        <v>1.33566932021114</v>
+        <v>1.090311700722182</v>
       </c>
       <c r="O11">
-        <v>1.178714191132597</v>
+        <v>1.032743165098705</v>
       </c>
       <c r="P11">
-        <v>1.596834937614275</v>
+        <v>1.287395153028712</v>
       </c>
       <c r="Q11">
-        <v>1.596834937614275</v>
+        <v>1.287395153028712</v>
       </c>
       <c r="R11">
-        <v>1.727417746315842</v>
+        <v>1.385936879181977</v>
       </c>
       <c r="S11">
-        <v>1.727417746315842</v>
+        <v>1.385936879181977</v>
       </c>
       <c r="T11">
-        <v>1.396021104515396</v>
+        <v>1.111903015522491</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.645091703518941</v>
+        <v>1.204297375474864</v>
       </c>
       <c r="D12">
-        <v>0.01007200863557245</v>
+        <v>0.8316785706537404</v>
       </c>
       <c r="E12">
-        <v>0.3479448539887899</v>
+        <v>1.204297375474864</v>
       </c>
       <c r="F12">
-        <v>1.645091703518941</v>
+        <v>1.018804060257072</v>
       </c>
       <c r="G12">
-        <v>0.00160015689206772</v>
+        <v>0.8302147277846954</v>
       </c>
       <c r="H12">
-        <v>1.137948696465565</v>
+        <v>0.6086200077841659</v>
       </c>
       <c r="I12">
-        <v>1.244459221634259</v>
+        <v>15.03145382813656</v>
       </c>
       <c r="J12">
-        <v>0.01007200863557245</v>
+        <v>0.8316785706537404</v>
       </c>
       <c r="K12">
-        <v>1.645091703518941</v>
+        <v>0.8316785706537404</v>
       </c>
       <c r="L12">
-        <v>0.3479448539887899</v>
+        <v>1.018804060257072</v>
       </c>
       <c r="M12">
-        <v>0.1790084313121812</v>
+        <v>1.111550717865968</v>
       </c>
       <c r="N12">
-        <v>0.1790084313121812</v>
+        <v>1.111550717865968</v>
       </c>
       <c r="O12">
-        <v>0.4986551863633091</v>
+        <v>0.9439071478387006</v>
       </c>
       <c r="P12">
-        <v>0.6677028553811012</v>
+        <v>1.018260002128559</v>
       </c>
       <c r="Q12">
-        <v>0.6677028553811012</v>
+        <v>1.018260002128559</v>
       </c>
       <c r="R12">
-        <v>0.9120500674155612</v>
+        <v>0.9716146442598542</v>
       </c>
       <c r="S12">
-        <v>0.9120500674155612</v>
+        <v>0.9716146442598542</v>
       </c>
       <c r="T12">
-        <v>0.7311861068558657</v>
+        <v>3.254178095015184</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.928466147286326</v>
+        <v>2.172339105742716</v>
       </c>
       <c r="D13">
-        <v>1.650072597258125</v>
+        <v>1.202442865347894</v>
       </c>
       <c r="E13">
-        <v>1.633539647079537</v>
+        <v>2.172339105742716</v>
       </c>
       <c r="F13">
-        <v>1.928466147286326</v>
+        <v>0.8346367182502548</v>
       </c>
       <c r="G13">
-        <v>0.0565668787269581</v>
+        <v>0.9789101416812964</v>
       </c>
       <c r="H13">
-        <v>0.5302853793049374</v>
+        <v>0.9414784351846258</v>
       </c>
       <c r="I13">
-        <v>1.43629553007657</v>
+        <v>0.5657525068046991</v>
       </c>
       <c r="J13">
-        <v>1.650072597258125</v>
+        <v>1.202442865347894</v>
       </c>
       <c r="K13">
-        <v>1.928466147286326</v>
+        <v>1.202442865347894</v>
       </c>
       <c r="L13">
-        <v>1.633539647079537</v>
+        <v>0.8346367182502548</v>
       </c>
       <c r="M13">
-        <v>1.641806122168831</v>
+        <v>1.503487911996485</v>
       </c>
       <c r="N13">
-        <v>1.641806122168831</v>
+        <v>1.503487911996485</v>
       </c>
       <c r="O13">
-        <v>1.271299207880866</v>
+        <v>1.316151419725865</v>
       </c>
       <c r="P13">
-        <v>1.737359463874663</v>
+        <v>1.403139563113622</v>
       </c>
       <c r="Q13">
-        <v>1.737359463874663</v>
+        <v>1.403139563113622</v>
       </c>
       <c r="R13">
-        <v>1.785136134727578</v>
+        <v>1.35296538867219</v>
       </c>
       <c r="S13">
-        <v>1.785136134727578</v>
+        <v>1.35296538867219</v>
       </c>
       <c r="T13">
-        <v>1.205871029955409</v>
+        <v>1.115926628835248</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.461016063161417</v>
+        <v>0.01191020399999999</v>
       </c>
       <c r="D14">
-        <v>0.1381971188727059</v>
+        <v>0.01028267100000001</v>
       </c>
       <c r="E14">
-        <v>0.475662596687032</v>
+        <v>0.01191020399999999</v>
       </c>
       <c r="F14">
-        <v>0.461016063161417</v>
+        <v>-0.01613836100000001</v>
       </c>
       <c r="G14">
-        <v>0.002274229037944545</v>
+        <v>-0.002821837500000001</v>
       </c>
       <c r="H14">
-        <v>2.386402339852183</v>
+        <v>-0.004875324700000001</v>
       </c>
       <c r="I14">
-        <v>0.6245017140196643</v>
+        <v>181.7141200000001</v>
       </c>
       <c r="J14">
-        <v>0.1381971188727059</v>
+        <v>0.01028267100000001</v>
       </c>
       <c r="K14">
-        <v>0.461016063161417</v>
+        <v>0.01028267100000001</v>
       </c>
       <c r="L14">
-        <v>0.475662596687032</v>
+        <v>-0.01613836100000001</v>
       </c>
       <c r="M14">
-        <v>0.3069298577798689</v>
+        <v>-0.00211407850000001</v>
       </c>
       <c r="N14">
-        <v>0.3069298577798689</v>
+        <v>-0.00211407850000001</v>
       </c>
       <c r="O14">
-        <v>1.000087351803974</v>
+        <v>-0.003034493900000007</v>
       </c>
       <c r="P14">
-        <v>0.358291926240385</v>
+        <v>0.002018171333333331</v>
       </c>
       <c r="Q14">
-        <v>0.358291926240385</v>
+        <v>0.002018171333333331</v>
       </c>
       <c r="R14">
-        <v>0.383972960470643</v>
+        <v>0.004084296250000001</v>
       </c>
       <c r="S14">
-        <v>0.383972960470643</v>
+        <v>0.004084296250000001</v>
       </c>
       <c r="T14">
-        <v>0.6813423436051579</v>
+        <v>30.28541289196669</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.01876150673234561</v>
+        <v>-0.00013343464</v>
       </c>
       <c r="D15">
-        <v>1.88377347901889</v>
+        <v>60.56463699999999</v>
       </c>
       <c r="E15">
-        <v>1.200061392746518</v>
+        <v>-0.00013343464</v>
       </c>
       <c r="F15">
-        <v>0.01876150673234561</v>
+        <v>30.275732</v>
       </c>
       <c r="G15">
-        <v>0.0654776260176899</v>
+        <v>-0.0034996326</v>
       </c>
       <c r="H15">
-        <v>0.8012222478846388</v>
+        <v>0.001687252</v>
       </c>
       <c r="I15">
-        <v>0.3036276470584079</v>
+        <v>-0.0029300202</v>
       </c>
       <c r="J15">
-        <v>1.88377347901889</v>
+        <v>60.56463699999999</v>
       </c>
       <c r="K15">
-        <v>0.01876150673234561</v>
+        <v>60.56463699999999</v>
       </c>
       <c r="L15">
-        <v>1.200061392746518</v>
+        <v>30.275732</v>
       </c>
       <c r="M15">
-        <v>1.541917435882704</v>
+        <v>15.13779928268</v>
       </c>
       <c r="N15">
-        <v>1.541917435882704</v>
+        <v>15.13779928268</v>
       </c>
       <c r="O15">
-        <v>1.295019039883349</v>
+        <v>10.09242860578667</v>
       </c>
       <c r="P15">
-        <v>1.034198792832584</v>
+        <v>30.28007852178666</v>
       </c>
       <c r="Q15">
-        <v>1.034198792832585</v>
+        <v>30.28007852178666</v>
       </c>
       <c r="R15">
-        <v>0.7803394713075248</v>
+        <v>37.85121814134</v>
       </c>
       <c r="S15">
-        <v>0.7803394713075248</v>
+        <v>37.85121814134</v>
       </c>
       <c r="T15">
-        <v>0.7121539832430818</v>
+        <v>15.13924886076</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.085290843956848</v>
+        <v>-0.00013588116</v>
       </c>
       <c r="D16">
-        <v>1.077638796612604</v>
+        <v>60.564636</v>
       </c>
       <c r="E16">
-        <v>1.027228763222599</v>
+        <v>-0.00013588116</v>
       </c>
       <c r="F16">
-        <v>1.085290843956848</v>
+        <v>30.27573</v>
       </c>
       <c r="G16">
-        <v>1.136107240091608</v>
+        <v>-0.0035009738</v>
       </c>
       <c r="H16">
-        <v>0.9779705929743001</v>
+        <v>0.0016908978</v>
       </c>
       <c r="I16">
-        <v>0.9562575347818246</v>
+        <v>-0.002923494</v>
       </c>
       <c r="J16">
-        <v>1.077638796612604</v>
+        <v>60.564636</v>
       </c>
       <c r="K16">
-        <v>1.085290843956848</v>
+        <v>60.564636</v>
       </c>
       <c r="L16">
-        <v>1.027228763222599</v>
+        <v>30.27573</v>
       </c>
       <c r="M16">
-        <v>1.052433779917602</v>
+        <v>15.13779705942</v>
       </c>
       <c r="N16">
-        <v>1.052433779917602</v>
+        <v>15.13779705942</v>
       </c>
       <c r="O16">
-        <v>1.027612717603168</v>
+        <v>10.09242833888</v>
       </c>
       <c r="P16">
-        <v>1.06338613459735</v>
+        <v>30.28007670628</v>
       </c>
       <c r="Q16">
-        <v>1.06338613459735</v>
+        <v>30.28007670628</v>
       </c>
       <c r="R16">
-        <v>1.068862311937225</v>
+        <v>37.85121652971</v>
       </c>
       <c r="S16">
-        <v>1.068862311937225</v>
+        <v>37.85121652971</v>
       </c>
       <c r="T16">
-        <v>1.043415628606631</v>
+        <v>15.13924942480667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.092574662375601</v>
+        <v>2.8219972</v>
       </c>
       <c r="D17">
-        <v>1.101343743264502</v>
+        <v>-0.0044311982</v>
       </c>
       <c r="E17">
-        <v>0.9895647260145773</v>
+        <v>2.8219972</v>
       </c>
       <c r="F17">
-        <v>1.092574662375601</v>
+        <v>0.013982879</v>
       </c>
       <c r="G17">
-        <v>1.127239901727791</v>
+        <v>0.00060701843</v>
       </c>
       <c r="H17">
-        <v>0.985165230591612</v>
+        <v>-0.008641470199999999</v>
       </c>
       <c r="I17">
-        <v>1.00022829437986</v>
+        <v>-0.0012621075</v>
       </c>
       <c r="J17">
-        <v>1.101343743264502</v>
+        <v>-0.0044311982</v>
       </c>
       <c r="K17">
-        <v>1.092574662375601</v>
+        <v>-0.0044311982</v>
       </c>
       <c r="L17">
-        <v>0.9895647260145773</v>
+        <v>0.013982879</v>
       </c>
       <c r="M17">
-        <v>1.04545423463954</v>
+        <v>1.4179900395</v>
       </c>
       <c r="N17">
-        <v>1.04545423463954</v>
+        <v>1.4179900395</v>
       </c>
       <c r="O17">
-        <v>1.025357899956897</v>
+        <v>0.9424462029333333</v>
       </c>
       <c r="P17">
-        <v>1.061161043884894</v>
+        <v>0.9438496269333334</v>
       </c>
       <c r="Q17">
-        <v>1.061161043884894</v>
+        <v>0.9438496269333334</v>
       </c>
       <c r="R17">
-        <v>1.06901444850757</v>
+        <v>0.7067794206500001</v>
       </c>
       <c r="S17">
-        <v>1.06901444850757</v>
+        <v>0.7067794206500001</v>
       </c>
       <c r="T17">
-        <v>1.049352759725657</v>
+        <v>0.4703753869216667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.195007744407059</v>
+        <v>0.007355574112876711</v>
       </c>
       <c r="D18">
-        <v>1.87828879327841</v>
+        <v>12.03672079550686</v>
       </c>
       <c r="E18">
-        <v>1.59847526808502</v>
+        <v>0.007355574112876711</v>
       </c>
       <c r="F18">
-        <v>2.195007744407059</v>
+        <v>6.021575615019177</v>
       </c>
       <c r="G18">
-        <v>1.236725628200523</v>
+        <v>5.43585504290685</v>
       </c>
       <c r="H18">
-        <v>1.030994425126467</v>
+        <v>0.00152872221369863</v>
       </c>
       <c r="I18">
-        <v>1.085991263936131</v>
+        <v>0.008836748638356165</v>
       </c>
       <c r="J18">
-        <v>1.87828879327841</v>
+        <v>12.03672079550686</v>
       </c>
       <c r="K18">
-        <v>2.195007744407059</v>
+        <v>12.03672079550686</v>
       </c>
       <c r="L18">
-        <v>1.59847526808502</v>
+        <v>6.021575615019177</v>
       </c>
       <c r="M18">
-        <v>1.738382030681715</v>
+        <v>3.014465594566027</v>
       </c>
       <c r="N18">
-        <v>1.738382030681715</v>
+        <v>3.014465594566027</v>
       </c>
       <c r="O18">
-        <v>1.502586162163299</v>
+        <v>2.010153303781918</v>
       </c>
       <c r="P18">
-        <v>1.890590601923497</v>
+        <v>6.021883994879637</v>
       </c>
       <c r="Q18">
-        <v>1.890590601923497</v>
+        <v>6.021883994879637</v>
       </c>
       <c r="R18">
-        <v>1.966694887544387</v>
+        <v>7.525593195036442</v>
       </c>
       <c r="S18">
-        <v>1.966694887544387</v>
+        <v>7.525593195036442</v>
       </c>
       <c r="T18">
-        <v>1.504247187172268</v>
+        <v>3.918645416399636</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9429926718960334</v>
+        <v>3.577301299625789</v>
       </c>
       <c r="D19">
-        <v>2.790966451419252</v>
+        <v>5.178183145965789</v>
       </c>
       <c r="E19">
-        <v>0.6774857153846733</v>
+        <v>3.577301299625789</v>
       </c>
       <c r="F19">
-        <v>0.9429926718960334</v>
+        <v>2.581179141198684</v>
       </c>
       <c r="G19">
-        <v>1.984226217357671</v>
+        <v>0.8132101462021052</v>
       </c>
       <c r="H19">
-        <v>0.900839153314214</v>
+        <v>0.001370283013157895</v>
       </c>
       <c r="I19">
-        <v>1.752577089019802</v>
+        <v>12.82462972165843</v>
       </c>
       <c r="J19">
-        <v>2.790966451419252</v>
+        <v>5.178183145965789</v>
       </c>
       <c r="K19">
-        <v>0.9429926718960334</v>
+        <v>5.178183145965789</v>
       </c>
       <c r="L19">
-        <v>0.6774857153846733</v>
+        <v>2.581179141198684</v>
       </c>
       <c r="M19">
-        <v>1.734226083401962</v>
+        <v>3.079240220412236</v>
       </c>
       <c r="N19">
-        <v>1.734226083401962</v>
+        <v>3.079240220412236</v>
       </c>
       <c r="O19">
-        <v>1.456430440039379</v>
+        <v>2.053283574612544</v>
       </c>
       <c r="P19">
-        <v>1.470481612899986</v>
+        <v>3.778887862263421</v>
       </c>
       <c r="Q19">
-        <v>1.470481612899986</v>
+        <v>3.778887862263421</v>
       </c>
       <c r="R19">
-        <v>1.338609377648998</v>
+        <v>4.128711683189013</v>
       </c>
       <c r="S19">
-        <v>1.338609377648998</v>
+        <v>4.128711683189013</v>
       </c>
       <c r="T19">
-        <v>1.508181216398608</v>
+        <v>4.162645622943993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>3.577255539067369</v>
+      </c>
+      <c r="D20">
+        <v>5.178160577926842</v>
+      </c>
+      <c r="E20">
+        <v>3.577255539067369</v>
+      </c>
+      <c r="F20">
+        <v>2.581158208672474</v>
+      </c>
+      <c r="G20">
+        <v>0.813207712042105</v>
+      </c>
+      <c r="H20">
+        <v>0.001372543362631579</v>
+      </c>
+      <c r="I20">
+        <v>12.82456598210579</v>
+      </c>
+      <c r="J20">
+        <v>5.178160577926842</v>
+      </c>
+      <c r="K20">
+        <v>5.178160577926842</v>
+      </c>
+      <c r="L20">
+        <v>2.581158208672474</v>
+      </c>
+      <c r="M20">
+        <v>3.079206873869921</v>
+      </c>
+      <c r="N20">
+        <v>3.079206873869921</v>
+      </c>
+      <c r="O20">
+        <v>2.053262097034158</v>
+      </c>
+      <c r="P20">
+        <v>3.778858108555562</v>
+      </c>
+      <c r="Q20">
+        <v>3.778858108555561</v>
+      </c>
+      <c r="R20">
+        <v>4.128683725898381</v>
+      </c>
+      <c r="S20">
+        <v>4.128683725898381</v>
+      </c>
+      <c r="T20">
+        <v>4.162620093862868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.1381971188727057</v>
+      </c>
+      <c r="D21">
+        <v>0.4610160631614155</v>
+      </c>
+      <c r="E21">
+        <v>0.1381971188727057</v>
+      </c>
+      <c r="F21">
+        <v>0.475662596687031</v>
+      </c>
+      <c r="G21">
+        <v>0.6245017140196639</v>
+      </c>
+      <c r="H21">
+        <v>2.386402339852183</v>
+      </c>
+      <c r="I21">
+        <v>0.002274229037944546</v>
+      </c>
+      <c r="J21">
+        <v>0.4610160631614155</v>
+      </c>
+      <c r="K21">
+        <v>0.4610160631614155</v>
+      </c>
+      <c r="L21">
+        <v>0.475662596687031</v>
+      </c>
+      <c r="M21">
+        <v>0.3069298577798684</v>
+      </c>
+      <c r="N21">
+        <v>0.3069298577798684</v>
+      </c>
+      <c r="O21">
+        <v>1.000087351803973</v>
+      </c>
+      <c r="P21">
+        <v>0.3582919262403841</v>
+      </c>
+      <c r="Q21">
+        <v>0.3582919262403841</v>
+      </c>
+      <c r="R21">
+        <v>0.3839729604706419</v>
+      </c>
+      <c r="S21">
+        <v>0.3839729604706419</v>
+      </c>
+      <c r="T21">
+        <v>0.6813423436051572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.88377347901889</v>
+      </c>
+      <c r="D22">
+        <v>0.01876150673234562</v>
+      </c>
+      <c r="E22">
+        <v>1.88377347901889</v>
+      </c>
+      <c r="F22">
+        <v>1.200061392746518</v>
+      </c>
+      <c r="G22">
+        <v>0.3036276470584079</v>
+      </c>
+      <c r="H22">
+        <v>0.8012222478846385</v>
+      </c>
+      <c r="I22">
+        <v>0.0654776260176899</v>
+      </c>
+      <c r="J22">
+        <v>0.01876150673234562</v>
+      </c>
+      <c r="K22">
+        <v>0.01876150673234562</v>
+      </c>
+      <c r="L22">
+        <v>1.200061392746518</v>
+      </c>
+      <c r="M22">
+        <v>1.541917435882704</v>
+      </c>
+      <c r="N22">
+        <v>1.541917435882704</v>
+      </c>
+      <c r="O22">
+        <v>1.295019039883349</v>
+      </c>
+      <c r="P22">
+        <v>1.034198792832584</v>
+      </c>
+      <c r="Q22">
+        <v>1.034198792832585</v>
+      </c>
+      <c r="R22">
+        <v>0.7803394713075248</v>
+      </c>
+      <c r="S22">
+        <v>0.7803394713075248</v>
+      </c>
+      <c r="T22">
+        <v>0.7121539832430818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.01007200863557245</v>
+      </c>
+      <c r="D23">
+        <v>1.645091703518941</v>
+      </c>
+      <c r="E23">
+        <v>0.01007200863557245</v>
+      </c>
+      <c r="F23">
+        <v>0.3479448539887881</v>
+      </c>
+      <c r="G23">
+        <v>1.244459221634258</v>
+      </c>
+      <c r="H23">
+        <v>1.137948696465565</v>
+      </c>
+      <c r="I23">
+        <v>0.001600156892067721</v>
+      </c>
+      <c r="J23">
+        <v>1.645091703518941</v>
+      </c>
+      <c r="K23">
+        <v>1.645091703518941</v>
+      </c>
+      <c r="L23">
+        <v>0.3479448539887881</v>
+      </c>
+      <c r="M23">
+        <v>0.1790084313121803</v>
+      </c>
+      <c r="N23">
+        <v>0.1790084313121803</v>
+      </c>
+      <c r="O23">
+        <v>0.4986551863633085</v>
+      </c>
+      <c r="P23">
+        <v>0.6677028553811007</v>
+      </c>
+      <c r="Q23">
+        <v>0.6677028553811007</v>
+      </c>
+      <c r="R23">
+        <v>0.9120500674155609</v>
+      </c>
+      <c r="S23">
+        <v>0.9120500674155609</v>
+      </c>
+      <c r="T23">
+        <v>0.7311861068558655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.65007259725812</v>
+      </c>
+      <c r="D24">
+        <v>1.928466147286326</v>
+      </c>
+      <c r="E24">
+        <v>1.65007259725812</v>
+      </c>
+      <c r="F24">
+        <v>1.633539647079539</v>
+      </c>
+      <c r="G24">
+        <v>1.43629553007657</v>
+      </c>
+      <c r="H24">
+        <v>0.5302853793049361</v>
+      </c>
+      <c r="I24">
+        <v>0.0565668787269581</v>
+      </c>
+      <c r="J24">
+        <v>1.928466147286326</v>
+      </c>
+      <c r="K24">
+        <v>1.928466147286326</v>
+      </c>
+      <c r="L24">
+        <v>1.633539647079539</v>
+      </c>
+      <c r="M24">
+        <v>1.641806122168829</v>
+      </c>
+      <c r="N24">
+        <v>1.641806122168829</v>
+      </c>
+      <c r="O24">
+        <v>1.271299207880865</v>
+      </c>
+      <c r="P24">
+        <v>1.737359463874661</v>
+      </c>
+      <c r="Q24">
+        <v>1.737359463874661</v>
+      </c>
+      <c r="R24">
+        <v>1.785136134727577</v>
+      </c>
+      <c r="S24">
+        <v>1.785136134727577</v>
+      </c>
+      <c r="T24">
+        <v>1.205871029955408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.1382793366769173</v>
+      </c>
+      <c r="D25">
+        <v>0.4608553622930011</v>
+      </c>
+      <c r="E25">
+        <v>0.1382793366769173</v>
+      </c>
+      <c r="F25">
+        <v>0.4756208411991519</v>
+      </c>
+      <c r="G25">
+        <v>0.6244920392272626</v>
+      </c>
+      <c r="H25">
+        <v>2.386460561270393</v>
+      </c>
+      <c r="I25">
+        <v>0.002274114007736404</v>
+      </c>
+      <c r="J25">
+        <v>0.4608553622930011</v>
+      </c>
+      <c r="K25">
+        <v>0.4608553622930011</v>
+      </c>
+      <c r="L25">
+        <v>0.4756208411991519</v>
+      </c>
+      <c r="M25">
+        <v>0.3069500889380347</v>
+      </c>
+      <c r="N25">
+        <v>0.3069500889380347</v>
+      </c>
+      <c r="O25">
+        <v>1.000120246382154</v>
+      </c>
+      <c r="P25">
+        <v>0.3582518467230235</v>
+      </c>
+      <c r="Q25">
+        <v>0.3582518467230235</v>
+      </c>
+      <c r="R25">
+        <v>0.3839027256155179</v>
+      </c>
+      <c r="S25">
+        <v>0.3839027256155179</v>
+      </c>
+      <c r="T25">
+        <v>0.6813303757790772</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.883889727573684</v>
+      </c>
+      <c r="D26">
+        <v>0.01875996443402056</v>
+      </c>
+      <c r="E26">
+        <v>1.883889727573684</v>
+      </c>
+      <c r="F26">
+        <v>1.200023372727909</v>
+      </c>
+      <c r="G26">
+        <v>0.3036598064457593</v>
+      </c>
+      <c r="H26">
+        <v>0.8012829343572095</v>
+      </c>
+      <c r="I26">
+        <v>0.06547171939151418</v>
+      </c>
+      <c r="J26">
+        <v>0.01875996443402056</v>
+      </c>
+      <c r="K26">
+        <v>0.01875996443402056</v>
+      </c>
+      <c r="L26">
+        <v>1.200023372727909</v>
+      </c>
+      <c r="M26">
+        <v>1.541956550150796</v>
+      </c>
+      <c r="N26">
+        <v>1.541956550150796</v>
+      </c>
+      <c r="O26">
+        <v>1.295065344886267</v>
+      </c>
+      <c r="P26">
+        <v>1.034224354911871</v>
+      </c>
+      <c r="Q26">
+        <v>1.034224354911871</v>
+      </c>
+      <c r="R26">
+        <v>0.7803582572924085</v>
+      </c>
+      <c r="S26">
+        <v>0.7803582572924085</v>
+      </c>
+      <c r="T26">
+        <v>0.712181254155016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>-0.004695112656998911</v>
+      </c>
+      <c r="D27">
+        <v>1.093055045769141</v>
+      </c>
+      <c r="E27">
+        <v>-0.004695112656998911</v>
+      </c>
+      <c r="F27">
+        <v>0.002887767181093652</v>
+      </c>
+      <c r="G27">
+        <v>0.03555918138088721</v>
+      </c>
+      <c r="H27">
+        <v>4.961700954747911</v>
+      </c>
+      <c r="I27">
+        <v>20.82228311165142</v>
+      </c>
+      <c r="J27">
+        <v>1.093055045769141</v>
+      </c>
+      <c r="K27">
+        <v>1.093055045769141</v>
+      </c>
+      <c r="L27">
+        <v>0.002887767181093652</v>
+      </c>
+      <c r="M27">
+        <v>-0.0009036727379526297</v>
+      </c>
+      <c r="N27">
+        <v>-0.0009036727379526297</v>
+      </c>
+      <c r="O27">
+        <v>1.653297869757335</v>
+      </c>
+      <c r="P27">
+        <v>0.3637492334310787</v>
+      </c>
+      <c r="Q27">
+        <v>0.3637492334310787</v>
+      </c>
+      <c r="R27">
+        <v>0.5460756865155945</v>
+      </c>
+      <c r="S27">
+        <v>0.5460756865155945</v>
+      </c>
+      <c r="T27">
+        <v>4.485131824678909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>10.98129957440812</v>
+      </c>
+      <c r="D28">
+        <v>0.7676763019288487</v>
+      </c>
+      <c r="E28">
+        <v>10.98129957440812</v>
+      </c>
+      <c r="F28">
+        <v>0.002621746776869666</v>
+      </c>
+      <c r="G28">
+        <v>2.306264034011368</v>
+      </c>
+      <c r="H28">
+        <v>-0.002901834222248979</v>
+      </c>
+      <c r="I28">
+        <v>0.2172962511975788</v>
+      </c>
+      <c r="J28">
+        <v>0.7676763019288487</v>
+      </c>
+      <c r="K28">
+        <v>0.7676763019288487</v>
+      </c>
+      <c r="L28">
+        <v>0.002621746776869666</v>
+      </c>
+      <c r="M28">
+        <v>5.491960660592494</v>
+      </c>
+      <c r="N28">
+        <v>5.491960660592494</v>
+      </c>
+      <c r="O28">
+        <v>3.66033982898758</v>
+      </c>
+      <c r="P28">
+        <v>3.917199207704612</v>
+      </c>
+      <c r="Q28">
+        <v>3.917199207704612</v>
+      </c>
+      <c r="R28">
+        <v>3.129818481260671</v>
+      </c>
+      <c r="S28">
+        <v>3.129818481260671</v>
+      </c>
+      <c r="T28">
+        <v>2.378709345683423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>24.17178515635653</v>
+      </c>
+      <c r="D29">
+        <v>1.726711719240725</v>
+      </c>
+      <c r="E29">
+        <v>24.17178515635653</v>
+      </c>
+      <c r="F29">
+        <v>-0.003044620529389311</v>
+      </c>
+      <c r="G29">
+        <v>0.002270452843350384</v>
+      </c>
+      <c r="H29">
+        <v>-0.004121546586019258</v>
+      </c>
+      <c r="I29">
+        <v>-0.00695400786212124</v>
+      </c>
+      <c r="J29">
+        <v>1.726711719240725</v>
+      </c>
+      <c r="K29">
+        <v>1.726711719240725</v>
+      </c>
+      <c r="L29">
+        <v>-0.003044620529389311</v>
+      </c>
+      <c r="M29">
+        <v>12.08437026791357</v>
+      </c>
+      <c r="N29">
+        <v>12.08437026791357</v>
+      </c>
+      <c r="O29">
+        <v>8.054872996413708</v>
+      </c>
+      <c r="P29">
+        <v>8.631817418355956</v>
+      </c>
+      <c r="Q29">
+        <v>8.631817418355956</v>
+      </c>
+      <c r="R29">
+        <v>6.905540993577149</v>
+      </c>
+      <c r="S29">
+        <v>6.905540993577149</v>
+      </c>
+      <c r="T29">
+        <v>4.314441192243847</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.944139154143614</v>
+        <v>0.8283294817328073</v>
       </c>
       <c r="D4">
-        <v>1.644023908283833</v>
+        <v>0.9432305590275015</v>
       </c>
       <c r="E4">
-        <v>0.944139154143614</v>
+        <v>0.8283294817328073</v>
       </c>
       <c r="F4">
-        <v>1.238627778224583</v>
+        <v>1.027741145227099</v>
       </c>
       <c r="G4">
-        <v>0.9906903204913647</v>
+        <v>0.9241159102219668</v>
       </c>
       <c r="H4">
-        <v>0.8318505109804277</v>
+        <v>0.7841146762185301</v>
       </c>
       <c r="I4">
-        <v>1.136760130544831</v>
+        <v>6.638403736502021</v>
       </c>
       <c r="J4">
-        <v>1.644023908283833</v>
+        <v>0.9432305590275015</v>
       </c>
       <c r="K4">
-        <v>1.644023908283833</v>
+        <v>0.9432305590275015</v>
       </c>
       <c r="L4">
-        <v>1.238627778224583</v>
+        <v>1.027741145227099</v>
       </c>
       <c r="M4">
-        <v>1.091383466184098</v>
+        <v>0.9280353134799532</v>
       </c>
       <c r="N4">
-        <v>1.091383466184098</v>
+        <v>0.9280353134799532</v>
       </c>
       <c r="O4">
-        <v>1.004872481116208</v>
+        <v>0.8800617677261454</v>
       </c>
       <c r="P4">
-        <v>1.27559694688401</v>
+        <v>0.933100395329136</v>
       </c>
       <c r="Q4">
-        <v>1.27559694688401</v>
+        <v>0.933100395329136</v>
       </c>
       <c r="R4">
-        <v>1.367703687233965</v>
+        <v>0.9356329362537273</v>
       </c>
       <c r="S4">
-        <v>1.367703687233965</v>
+        <v>0.9356329362537273</v>
       </c>
       <c r="T4">
-        <v>1.131015300444776</v>
+        <v>1.857655918154988</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8245988477892644</v>
+        <v>3.957012893366927</v>
       </c>
       <c r="D5">
-        <v>1.241518653097417</v>
+        <v>4.22205352347879</v>
       </c>
       <c r="E5">
-        <v>0.8245988477892644</v>
+        <v>3.957012893366927</v>
       </c>
       <c r="F5">
-        <v>1.14064159226147</v>
+        <v>2.100187808181157</v>
       </c>
       <c r="G5">
-        <v>1.018761293239957</v>
+        <v>0.8961569095651547</v>
       </c>
       <c r="H5">
-        <v>0.7337219495375592</v>
+        <v>0.001763250605379857</v>
       </c>
       <c r="I5">
-        <v>10.83646012326775</v>
+        <v>3.986963441932826</v>
       </c>
       <c r="J5">
-        <v>1.241518653097417</v>
+        <v>4.22205352347879</v>
       </c>
       <c r="K5">
-        <v>1.241518653097417</v>
+        <v>4.22205352347879</v>
       </c>
       <c r="L5">
-        <v>1.14064159226147</v>
+        <v>2.100187808181157</v>
       </c>
       <c r="M5">
-        <v>0.9826202200253673</v>
+        <v>3.028600350774042</v>
       </c>
       <c r="N5">
-        <v>0.9826202200253673</v>
+        <v>3.028600350774042</v>
       </c>
       <c r="O5">
-        <v>0.8996541298627646</v>
+        <v>2.019654650717821</v>
       </c>
       <c r="P5">
-        <v>1.06891969771605</v>
+        <v>3.426418075008958</v>
       </c>
       <c r="Q5">
-        <v>1.06891969771605</v>
+        <v>3.426418075008959</v>
       </c>
       <c r="R5">
-        <v>1.112069436561392</v>
+        <v>3.625326937126416</v>
       </c>
       <c r="S5">
-        <v>1.112069436561392</v>
+        <v>3.625326937126416</v>
       </c>
       <c r="T5">
-        <v>2.632617076532237</v>
+        <v>2.527356304521706</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4220498030888022</v>
+        <v>0.944139154143614</v>
       </c>
       <c r="D6">
-        <v>0.4755508055567425</v>
+        <v>1.644023908283833</v>
       </c>
       <c r="E6">
-        <v>0.4220498030888022</v>
+        <v>0.944139154143614</v>
       </c>
       <c r="F6">
-        <v>0.505594680537832</v>
+        <v>1.238627778224583</v>
       </c>
       <c r="G6">
-        <v>0.4613728150596415</v>
+        <v>0.9906903204913647</v>
       </c>
       <c r="H6">
-        <v>0.3908309532960863</v>
+        <v>0.8318505109804277</v>
       </c>
       <c r="I6">
-        <v>93.97462153125485</v>
+        <v>1.136760130544831</v>
       </c>
       <c r="J6">
-        <v>0.4755508055567425</v>
+        <v>1.644023908283833</v>
       </c>
       <c r="K6">
-        <v>0.4755508055567425</v>
+        <v>1.644023908283833</v>
       </c>
       <c r="L6">
-        <v>0.505594680537832</v>
+        <v>1.238627778224583</v>
       </c>
       <c r="M6">
-        <v>0.4638222418133171</v>
+        <v>1.091383466184098</v>
       </c>
       <c r="N6">
-        <v>0.4638222418133171</v>
+        <v>1.091383466184098</v>
       </c>
       <c r="O6">
-        <v>0.4394918123075735</v>
+        <v>1.004872481116208</v>
       </c>
       <c r="P6">
-        <v>0.4677317630611256</v>
+        <v>1.27559694688401</v>
       </c>
       <c r="Q6">
-        <v>0.4677317630611256</v>
+        <v>1.27559694688401</v>
       </c>
       <c r="R6">
-        <v>0.4696865236850298</v>
+        <v>1.367703687233965</v>
       </c>
       <c r="S6">
-        <v>0.4696865236850298</v>
+        <v>1.367703687233965</v>
       </c>
       <c r="T6">
-        <v>16.03833676479899</v>
+        <v>1.131015300444776</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.017105050004865</v>
+        <v>0.8245988477892644</v>
       </c>
       <c r="D7">
-        <v>1.540223002437691</v>
+        <v>1.241518653097417</v>
       </c>
       <c r="E7">
-        <v>1.017105050004865</v>
+        <v>0.8245988477892644</v>
       </c>
       <c r="F7">
-        <v>1.234741558948977</v>
+        <v>1.14064159226147</v>
       </c>
       <c r="G7">
-        <v>1.180108663615856</v>
+        <v>1.018761293239957</v>
       </c>
       <c r="H7">
-        <v>0.9308663891584225</v>
+        <v>0.7337219495375592</v>
       </c>
       <c r="I7">
-        <v>1.076657622157771</v>
+        <v>10.83646012326775</v>
       </c>
       <c r="J7">
-        <v>1.540223002437691</v>
+        <v>1.241518653097417</v>
       </c>
       <c r="K7">
-        <v>1.540223002437691</v>
+        <v>1.241518653097417</v>
       </c>
       <c r="L7">
-        <v>1.234741558948977</v>
+        <v>1.14064159226147</v>
       </c>
       <c r="M7">
-        <v>1.125923304476921</v>
+        <v>0.9826202200253673</v>
       </c>
       <c r="N7">
-        <v>1.125923304476921</v>
+        <v>0.9826202200253673</v>
       </c>
       <c r="O7">
-        <v>1.060904332704088</v>
+        <v>0.8996541298627646</v>
       </c>
       <c r="P7">
-        <v>1.264023203797177</v>
+        <v>1.06891969771605</v>
       </c>
       <c r="Q7">
-        <v>1.264023203797177</v>
+        <v>1.06891969771605</v>
       </c>
       <c r="R7">
-        <v>1.333073153457306</v>
+        <v>1.112069436561392</v>
       </c>
       <c r="S7">
-        <v>1.333073153457306</v>
+        <v>1.112069436561392</v>
       </c>
       <c r="T7">
-        <v>1.163283714387264</v>
+        <v>2.632617076532237</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.1013437432645</v>
+        <v>0.4220498030888022</v>
       </c>
       <c r="D8">
-        <v>1.092574662375605</v>
+        <v>0.4755508055567425</v>
       </c>
       <c r="E8">
-        <v>1.1013437432645</v>
+        <v>0.4220498030888022</v>
       </c>
       <c r="F8">
-        <v>0.989564726014578</v>
+        <v>0.505594680537832</v>
       </c>
       <c r="G8">
-        <v>1.000228294379863</v>
+        <v>0.4613728150596415</v>
       </c>
       <c r="H8">
-        <v>0.9851652305916114</v>
+        <v>0.3908309532960863</v>
       </c>
       <c r="I8">
-        <v>1.12723990172779</v>
+        <v>93.97462153125485</v>
       </c>
       <c r="J8">
-        <v>1.092574662375605</v>
+        <v>0.4755508055567425</v>
       </c>
       <c r="K8">
-        <v>1.092574662375605</v>
+        <v>0.4755508055567425</v>
       </c>
       <c r="L8">
-        <v>0.989564726014578</v>
+        <v>0.505594680537832</v>
       </c>
       <c r="M8">
-        <v>1.045454234639539</v>
+        <v>0.4638222418133171</v>
       </c>
       <c r="N8">
-        <v>1.045454234639539</v>
+        <v>0.4638222418133171</v>
       </c>
       <c r="O8">
-        <v>1.025357899956896</v>
+        <v>0.4394918123075735</v>
       </c>
       <c r="P8">
-        <v>1.061161043884894</v>
+        <v>0.4677317630611256</v>
       </c>
       <c r="Q8">
-        <v>1.061161043884894</v>
+        <v>0.4677317630611256</v>
       </c>
       <c r="R8">
-        <v>1.069014448507572</v>
+        <v>0.4696865236850298</v>
       </c>
       <c r="S8">
-        <v>1.069014448507572</v>
+        <v>0.4696865236850298</v>
       </c>
       <c r="T8">
-        <v>1.049352759725658</v>
+        <v>16.03833676479899</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.453259462746687</v>
+        <v>1.017105050004865</v>
       </c>
       <c r="D9">
-        <v>2.38256525955612</v>
+        <v>1.540223002437691</v>
       </c>
       <c r="E9">
-        <v>1.453259462746687</v>
+        <v>1.017105050004865</v>
       </c>
       <c r="F9">
-        <v>1.594093757720581</v>
+        <v>1.234741558948977</v>
       </c>
       <c r="G9">
-        <v>1.555935927545614</v>
+        <v>1.180108663615856</v>
       </c>
       <c r="H9">
-        <v>0.8966400028767746</v>
+        <v>0.9308663891584225</v>
       </c>
       <c r="I9">
-        <v>1.292827208771685</v>
+        <v>1.076657622157771</v>
       </c>
       <c r="J9">
-        <v>2.38256525955612</v>
+        <v>1.540223002437691</v>
       </c>
       <c r="K9">
-        <v>2.38256525955612</v>
+        <v>1.540223002437691</v>
       </c>
       <c r="L9">
-        <v>1.594093757720581</v>
+        <v>1.234741558948977</v>
       </c>
       <c r="M9">
-        <v>1.523676610233634</v>
+        <v>1.125923304476921</v>
       </c>
       <c r="N9">
-        <v>1.523676610233634</v>
+        <v>1.125923304476921</v>
       </c>
       <c r="O9">
-        <v>1.314664407781348</v>
+        <v>1.060904332704088</v>
       </c>
       <c r="P9">
-        <v>1.809972826674463</v>
+        <v>1.264023203797177</v>
       </c>
       <c r="Q9">
-        <v>1.809972826674463</v>
+        <v>1.264023203797177</v>
       </c>
       <c r="R9">
-        <v>1.953120934894877</v>
+        <v>1.333073153457306</v>
       </c>
       <c r="S9">
-        <v>1.953120934894877</v>
+        <v>1.333073153457306</v>
       </c>
       <c r="T9">
-        <v>1.529220269869577</v>
+        <v>1.163283714387264</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6243490048365364</v>
+        <v>1.1013437432645</v>
       </c>
       <c r="D10">
-        <v>0.4437494295472709</v>
+        <v>1.092574662375605</v>
       </c>
       <c r="E10">
-        <v>0.6243490048365364</v>
+        <v>1.1013437432645</v>
       </c>
       <c r="F10">
-        <v>0.4528004232690946</v>
+        <v>0.989564726014578</v>
       </c>
       <c r="G10">
-        <v>0.446761014765865</v>
+        <v>1.000228294379863</v>
       </c>
       <c r="H10">
-        <v>0.3333198113456903</v>
+        <v>0.9851652305916114</v>
       </c>
       <c r="I10">
-        <v>95.1184484579383</v>
+        <v>1.12723990172779</v>
       </c>
       <c r="J10">
-        <v>0.4437494295472709</v>
+        <v>1.092574662375605</v>
       </c>
       <c r="K10">
-        <v>0.4437494295472709</v>
+        <v>1.092574662375605</v>
       </c>
       <c r="L10">
-        <v>0.4528004232690946</v>
+        <v>0.989564726014578</v>
       </c>
       <c r="M10">
-        <v>0.5385747140528155</v>
+        <v>1.045454234639539</v>
       </c>
       <c r="N10">
-        <v>0.5385747140528155</v>
+        <v>1.045454234639539</v>
       </c>
       <c r="O10">
-        <v>0.4701564131504405</v>
+        <v>1.025357899956896</v>
       </c>
       <c r="P10">
-        <v>0.5069662858843006</v>
+        <v>1.061161043884894</v>
       </c>
       <c r="Q10">
-        <v>0.5069662858843006</v>
+        <v>1.061161043884894</v>
       </c>
       <c r="R10">
-        <v>0.4911620718000432</v>
+        <v>1.069014448507572</v>
       </c>
       <c r="S10">
-        <v>0.4911620718000432</v>
+        <v>1.069014448507572</v>
       </c>
       <c r="T10">
-        <v>16.23657135695046</v>
+        <v>1.049352759725658</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001017350225919</v>
+        <v>1.453259462746687</v>
       </c>
       <c r="D11">
-        <v>1.681562057641774</v>
+        <v>2.38256525955612</v>
       </c>
       <c r="E11">
-        <v>1.001017350225919</v>
+        <v>1.453259462746687</v>
       </c>
       <c r="F11">
-        <v>1.179606051218445</v>
+        <v>1.594093757720581</v>
       </c>
       <c r="G11">
-        <v>1.025592246117646</v>
+        <v>1.555935927545614</v>
       </c>
       <c r="H11">
-        <v>0.9176060938517526</v>
+        <v>0.8966400028767746</v>
       </c>
       <c r="I11">
-        <v>0.8660342940794132</v>
+        <v>1.292827208771685</v>
       </c>
       <c r="J11">
-        <v>1.681562057641774</v>
+        <v>2.38256525955612</v>
       </c>
       <c r="K11">
-        <v>1.681562057641774</v>
+        <v>2.38256525955612</v>
       </c>
       <c r="L11">
-        <v>1.179606051218445</v>
+        <v>1.594093757720581</v>
       </c>
       <c r="M11">
-        <v>1.090311700722182</v>
+        <v>1.523676610233634</v>
       </c>
       <c r="N11">
-        <v>1.090311700722182</v>
+        <v>1.523676610233634</v>
       </c>
       <c r="O11">
-        <v>1.032743165098705</v>
+        <v>1.314664407781348</v>
       </c>
       <c r="P11">
-        <v>1.287395153028712</v>
+        <v>1.809972826674463</v>
       </c>
       <c r="Q11">
-        <v>1.287395153028712</v>
+        <v>1.809972826674463</v>
       </c>
       <c r="R11">
-        <v>1.385936879181977</v>
+        <v>1.953120934894877</v>
       </c>
       <c r="S11">
-        <v>1.385936879181977</v>
+        <v>1.953120934894877</v>
       </c>
       <c r="T11">
-        <v>1.111903015522491</v>
+        <v>1.529220269869577</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.204297375474864</v>
+        <v>0.6243490048365364</v>
       </c>
       <c r="D12">
-        <v>0.8316785706537404</v>
+        <v>0.4437494295472709</v>
       </c>
       <c r="E12">
-        <v>1.204297375474864</v>
+        <v>0.6243490048365364</v>
       </c>
       <c r="F12">
-        <v>1.018804060257072</v>
+        <v>0.4528004232690946</v>
       </c>
       <c r="G12">
-        <v>0.8302147277846954</v>
+        <v>0.446761014765865</v>
       </c>
       <c r="H12">
-        <v>0.6086200077841659</v>
+        <v>0.3333198113456903</v>
       </c>
       <c r="I12">
-        <v>15.03145382813656</v>
+        <v>95.1184484579383</v>
       </c>
       <c r="J12">
-        <v>0.8316785706537404</v>
+        <v>0.4437494295472709</v>
       </c>
       <c r="K12">
-        <v>0.8316785706537404</v>
+        <v>0.4437494295472709</v>
       </c>
       <c r="L12">
-        <v>1.018804060257072</v>
+        <v>0.4528004232690946</v>
       </c>
       <c r="M12">
-        <v>1.111550717865968</v>
+        <v>0.5385747140528155</v>
       </c>
       <c r="N12">
-        <v>1.111550717865968</v>
+        <v>0.5385747140528155</v>
       </c>
       <c r="O12">
-        <v>0.9439071478387006</v>
+        <v>0.4701564131504405</v>
       </c>
       <c r="P12">
-        <v>1.018260002128559</v>
+        <v>0.5069662858843006</v>
       </c>
       <c r="Q12">
-        <v>1.018260002128559</v>
+        <v>0.5069662858843006</v>
       </c>
       <c r="R12">
-        <v>0.9716146442598542</v>
+        <v>0.4911620718000432</v>
       </c>
       <c r="S12">
-        <v>0.9716146442598542</v>
+        <v>0.4911620718000432</v>
       </c>
       <c r="T12">
-        <v>3.254178095015184</v>
+        <v>16.23657135695046</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.172339105742716</v>
+        <v>1.001017350225919</v>
       </c>
       <c r="D13">
-        <v>1.202442865347894</v>
+        <v>1.681562057641774</v>
       </c>
       <c r="E13">
-        <v>2.172339105742716</v>
+        <v>1.001017350225919</v>
       </c>
       <c r="F13">
-        <v>0.8346367182502548</v>
+        <v>1.179606051218445</v>
       </c>
       <c r="G13">
-        <v>0.9789101416812964</v>
+        <v>1.025592246117646</v>
       </c>
       <c r="H13">
-        <v>0.9414784351846258</v>
+        <v>0.9176060938517526</v>
       </c>
       <c r="I13">
-        <v>0.5657525068046991</v>
+        <v>0.8660342940794132</v>
       </c>
       <c r="J13">
-        <v>1.202442865347894</v>
+        <v>1.681562057641774</v>
       </c>
       <c r="K13">
-        <v>1.202442865347894</v>
+        <v>1.681562057641774</v>
       </c>
       <c r="L13">
-        <v>0.8346367182502548</v>
+        <v>1.179606051218445</v>
       </c>
       <c r="M13">
-        <v>1.503487911996485</v>
+        <v>1.090311700722182</v>
       </c>
       <c r="N13">
-        <v>1.503487911996485</v>
+        <v>1.090311700722182</v>
       </c>
       <c r="O13">
-        <v>1.316151419725865</v>
+        <v>1.032743165098705</v>
       </c>
       <c r="P13">
-        <v>1.403139563113622</v>
+        <v>1.287395153028712</v>
       </c>
       <c r="Q13">
-        <v>1.403139563113622</v>
+        <v>1.287395153028712</v>
       </c>
       <c r="R13">
-        <v>1.35296538867219</v>
+        <v>1.385936879181977</v>
       </c>
       <c r="S13">
-        <v>1.35296538867219</v>
+        <v>1.385936879181977</v>
       </c>
       <c r="T13">
-        <v>1.115926628835248</v>
+        <v>1.111903015522491</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.01191020399999999</v>
+        <v>1.204297375474864</v>
       </c>
       <c r="D14">
-        <v>0.01028267100000001</v>
+        <v>0.8316785706537404</v>
       </c>
       <c r="E14">
-        <v>0.01191020399999999</v>
+        <v>1.204297375474864</v>
       </c>
       <c r="F14">
-        <v>-0.01613836100000001</v>
+        <v>1.018804060257072</v>
       </c>
       <c r="G14">
-        <v>-0.002821837500000001</v>
+        <v>0.8302147277846954</v>
       </c>
       <c r="H14">
-        <v>-0.004875324700000001</v>
+        <v>0.6086200077841659</v>
       </c>
       <c r="I14">
-        <v>181.7141200000001</v>
+        <v>15.03145382813656</v>
       </c>
       <c r="J14">
-        <v>0.01028267100000001</v>
+        <v>0.8316785706537404</v>
       </c>
       <c r="K14">
-        <v>0.01028267100000001</v>
+        <v>0.8316785706537404</v>
       </c>
       <c r="L14">
-        <v>-0.01613836100000001</v>
+        <v>1.018804060257072</v>
       </c>
       <c r="M14">
-        <v>-0.00211407850000001</v>
+        <v>1.111550717865968</v>
       </c>
       <c r="N14">
-        <v>-0.00211407850000001</v>
+        <v>1.111550717865968</v>
       </c>
       <c r="O14">
-        <v>-0.003034493900000007</v>
+        <v>0.9439071478387006</v>
       </c>
       <c r="P14">
-        <v>0.002018171333333331</v>
+        <v>1.018260002128559</v>
       </c>
       <c r="Q14">
-        <v>0.002018171333333331</v>
+        <v>1.018260002128559</v>
       </c>
       <c r="R14">
-        <v>0.004084296250000001</v>
+        <v>0.9716146442598542</v>
       </c>
       <c r="S14">
-        <v>0.004084296250000001</v>
+        <v>0.9716146442598542</v>
       </c>
       <c r="T14">
-        <v>30.28541289196669</v>
+        <v>3.254178095015184</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-0.00013343464</v>
+        <v>2.172339105742716</v>
       </c>
       <c r="D15">
-        <v>60.56463699999999</v>
+        <v>1.202442865347894</v>
       </c>
       <c r="E15">
-        <v>-0.00013343464</v>
+        <v>2.172339105742716</v>
       </c>
       <c r="F15">
-        <v>30.275732</v>
+        <v>0.8346367182502548</v>
       </c>
       <c r="G15">
-        <v>-0.0034996326</v>
+        <v>0.9789101416812964</v>
       </c>
       <c r="H15">
-        <v>0.001687252</v>
+        <v>0.9414784351846258</v>
       </c>
       <c r="I15">
-        <v>-0.0029300202</v>
+        <v>0.5657525068046991</v>
       </c>
       <c r="J15">
-        <v>60.56463699999999</v>
+        <v>1.202442865347894</v>
       </c>
       <c r="K15">
-        <v>60.56463699999999</v>
+        <v>1.202442865347894</v>
       </c>
       <c r="L15">
-        <v>30.275732</v>
+        <v>0.8346367182502548</v>
       </c>
       <c r="M15">
-        <v>15.13779928268</v>
+        <v>1.503487911996485</v>
       </c>
       <c r="N15">
-        <v>15.13779928268</v>
+        <v>1.503487911996485</v>
       </c>
       <c r="O15">
-        <v>10.09242860578667</v>
+        <v>1.316151419725865</v>
       </c>
       <c r="P15">
-        <v>30.28007852178666</v>
+        <v>1.403139563113622</v>
       </c>
       <c r="Q15">
-        <v>30.28007852178666</v>
+        <v>1.403139563113622</v>
       </c>
       <c r="R15">
-        <v>37.85121814134</v>
+        <v>1.35296538867219</v>
       </c>
       <c r="S15">
-        <v>37.85121814134</v>
+        <v>1.35296538867219</v>
       </c>
       <c r="T15">
-        <v>15.13924886076</v>
+        <v>1.115926628835248</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>-0.00013588116</v>
+        <v>0.01191020399999999</v>
       </c>
       <c r="D16">
-        <v>60.564636</v>
+        <v>0.01028267100000001</v>
       </c>
       <c r="E16">
-        <v>-0.00013588116</v>
+        <v>0.01191020399999999</v>
       </c>
       <c r="F16">
-        <v>30.27573</v>
+        <v>-0.01613836100000001</v>
       </c>
       <c r="G16">
-        <v>-0.0035009738</v>
+        <v>-0.002821837500000001</v>
       </c>
       <c r="H16">
-        <v>0.0016908978</v>
+        <v>-0.004875324700000001</v>
       </c>
       <c r="I16">
-        <v>-0.002923494</v>
+        <v>181.7141200000001</v>
       </c>
       <c r="J16">
-        <v>60.564636</v>
+        <v>0.01028267100000001</v>
       </c>
       <c r="K16">
-        <v>60.564636</v>
+        <v>0.01028267100000001</v>
       </c>
       <c r="L16">
-        <v>30.27573</v>
+        <v>-0.01613836100000001</v>
       </c>
       <c r="M16">
-        <v>15.13779705942</v>
+        <v>-0.00211407850000001</v>
       </c>
       <c r="N16">
-        <v>15.13779705942</v>
+        <v>-0.00211407850000001</v>
       </c>
       <c r="O16">
-        <v>10.09242833888</v>
+        <v>-0.003034493900000007</v>
       </c>
       <c r="P16">
-        <v>30.28007670628</v>
+        <v>0.002018171333333331</v>
       </c>
       <c r="Q16">
-        <v>30.28007670628</v>
+        <v>0.002018171333333331</v>
       </c>
       <c r="R16">
-        <v>37.85121652971</v>
+        <v>0.004084296250000001</v>
       </c>
       <c r="S16">
-        <v>37.85121652971</v>
+        <v>0.004084296250000001</v>
       </c>
       <c r="T16">
-        <v>15.13924942480667</v>
+        <v>30.28541289196669</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>2.8219972</v>
+        <v>-0.00013343464</v>
       </c>
       <c r="D17">
-        <v>-0.0044311982</v>
+        <v>60.56463699999999</v>
       </c>
       <c r="E17">
-        <v>2.8219972</v>
+        <v>-0.00013343464</v>
       </c>
       <c r="F17">
-        <v>0.013982879</v>
+        <v>30.275732</v>
       </c>
       <c r="G17">
-        <v>0.00060701843</v>
+        <v>-0.0034996326</v>
       </c>
       <c r="H17">
-        <v>-0.008641470199999999</v>
+        <v>0.001687252</v>
       </c>
       <c r="I17">
-        <v>-0.0012621075</v>
+        <v>-0.0029300202</v>
       </c>
       <c r="J17">
-        <v>-0.0044311982</v>
+        <v>60.56463699999999</v>
       </c>
       <c r="K17">
-        <v>-0.0044311982</v>
+        <v>60.56463699999999</v>
       </c>
       <c r="L17">
-        <v>0.013982879</v>
+        <v>30.275732</v>
       </c>
       <c r="M17">
-        <v>1.4179900395</v>
+        <v>15.13779928268</v>
       </c>
       <c r="N17">
-        <v>1.4179900395</v>
+        <v>15.13779928268</v>
       </c>
       <c r="O17">
-        <v>0.9424462029333333</v>
+        <v>10.09242860578667</v>
       </c>
       <c r="P17">
-        <v>0.9438496269333334</v>
+        <v>30.28007852178666</v>
       </c>
       <c r="Q17">
-        <v>0.9438496269333334</v>
+        <v>30.28007852178666</v>
       </c>
       <c r="R17">
-        <v>0.7067794206500001</v>
+        <v>37.85121814134</v>
       </c>
       <c r="S17">
-        <v>0.7067794206500001</v>
+        <v>37.85121814134</v>
       </c>
       <c r="T17">
-        <v>0.4703753869216667</v>
+        <v>15.13924886076</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.007355574112876711</v>
+        <v>-0.00013588116</v>
       </c>
       <c r="D18">
-        <v>12.03672079550686</v>
+        <v>60.564636</v>
       </c>
       <c r="E18">
-        <v>0.007355574112876711</v>
+        <v>-0.00013588116</v>
       </c>
       <c r="F18">
-        <v>6.021575615019177</v>
+        <v>30.27573</v>
       </c>
       <c r="G18">
-        <v>5.43585504290685</v>
+        <v>-0.0035009738</v>
       </c>
       <c r="H18">
-        <v>0.00152872221369863</v>
+        <v>0.0016908978</v>
       </c>
       <c r="I18">
-        <v>0.008836748638356165</v>
+        <v>-0.002923494</v>
       </c>
       <c r="J18">
-        <v>12.03672079550686</v>
+        <v>60.564636</v>
       </c>
       <c r="K18">
-        <v>12.03672079550686</v>
+        <v>60.564636</v>
       </c>
       <c r="L18">
-        <v>6.021575615019177</v>
+        <v>30.27573</v>
       </c>
       <c r="M18">
-        <v>3.014465594566027</v>
+        <v>15.13779705942</v>
       </c>
       <c r="N18">
-        <v>3.014465594566027</v>
+        <v>15.13779705942</v>
       </c>
       <c r="O18">
-        <v>2.010153303781918</v>
+        <v>10.09242833888</v>
       </c>
       <c r="P18">
-        <v>6.021883994879637</v>
+        <v>30.28007670628</v>
       </c>
       <c r="Q18">
-        <v>6.021883994879637</v>
+        <v>30.28007670628</v>
       </c>
       <c r="R18">
-        <v>7.525593195036442</v>
+        <v>37.85121652971</v>
       </c>
       <c r="S18">
-        <v>7.525593195036442</v>
+        <v>37.85121652971</v>
       </c>
       <c r="T18">
-        <v>3.918645416399636</v>
+        <v>15.13924942480667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>3.577301299625789</v>
+        <v>2.8219972</v>
       </c>
       <c r="D19">
-        <v>5.178183145965789</v>
+        <v>-0.0044311982</v>
       </c>
       <c r="E19">
-        <v>3.577301299625789</v>
+        <v>2.8219972</v>
       </c>
       <c r="F19">
-        <v>2.581179141198684</v>
+        <v>0.013982879</v>
       </c>
       <c r="G19">
-        <v>0.8132101462021052</v>
+        <v>0.00060701843</v>
       </c>
       <c r="H19">
-        <v>0.001370283013157895</v>
+        <v>-0.008641470199999999</v>
       </c>
       <c r="I19">
-        <v>12.82462972165843</v>
+        <v>-0.0012621075</v>
       </c>
       <c r="J19">
-        <v>5.178183145965789</v>
+        <v>-0.0044311982</v>
       </c>
       <c r="K19">
-        <v>5.178183145965789</v>
+        <v>-0.0044311982</v>
       </c>
       <c r="L19">
-        <v>2.581179141198684</v>
+        <v>0.013982879</v>
       </c>
       <c r="M19">
-        <v>3.079240220412236</v>
+        <v>1.4179900395</v>
       </c>
       <c r="N19">
-        <v>3.079240220412236</v>
+        <v>1.4179900395</v>
       </c>
       <c r="O19">
-        <v>2.053283574612544</v>
+        <v>0.9424462029333333</v>
       </c>
       <c r="P19">
-        <v>3.778887862263421</v>
+        <v>0.9438496269333334</v>
       </c>
       <c r="Q19">
-        <v>3.778887862263421</v>
+        <v>0.9438496269333334</v>
       </c>
       <c r="R19">
-        <v>4.128711683189013</v>
+        <v>0.7067794206500001</v>
       </c>
       <c r="S19">
-        <v>4.128711683189013</v>
+        <v>0.7067794206500001</v>
       </c>
       <c r="T19">
-        <v>4.162645622943993</v>
+        <v>0.4703753869216667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>3.577255539067369</v>
+        <v>0.007355574112876711</v>
       </c>
       <c r="D20">
-        <v>5.178160577926842</v>
+        <v>12.03672079550686</v>
       </c>
       <c r="E20">
-        <v>3.577255539067369</v>
+        <v>0.007355574112876711</v>
       </c>
       <c r="F20">
-        <v>2.581158208672474</v>
+        <v>6.021575615019177</v>
       </c>
       <c r="G20">
-        <v>0.813207712042105</v>
+        <v>5.43585504290685</v>
       </c>
       <c r="H20">
-        <v>0.001372543362631579</v>
+        <v>0.00152872221369863</v>
       </c>
       <c r="I20">
-        <v>12.82456598210579</v>
+        <v>0.008836748638356165</v>
       </c>
       <c r="J20">
-        <v>5.178160577926842</v>
+        <v>12.03672079550686</v>
       </c>
       <c r="K20">
-        <v>5.178160577926842</v>
+        <v>12.03672079550686</v>
       </c>
       <c r="L20">
-        <v>2.581158208672474</v>
+        <v>6.021575615019177</v>
       </c>
       <c r="M20">
-        <v>3.079206873869921</v>
+        <v>3.014465594566027</v>
       </c>
       <c r="N20">
-        <v>3.079206873869921</v>
+        <v>3.014465594566027</v>
       </c>
       <c r="O20">
-        <v>2.053262097034158</v>
+        <v>2.010153303781918</v>
       </c>
       <c r="P20">
-        <v>3.778858108555562</v>
+        <v>6.021883994879637</v>
       </c>
       <c r="Q20">
-        <v>3.778858108555561</v>
+        <v>6.021883994879637</v>
       </c>
       <c r="R20">
-        <v>4.128683725898381</v>
+        <v>7.525593195036442</v>
       </c>
       <c r="S20">
-        <v>4.128683725898381</v>
+        <v>7.525593195036442</v>
       </c>
       <c r="T20">
-        <v>4.162620093862868</v>
+        <v>3.918645416399636</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.1381971188727057</v>
+        <v>3.577301299625789</v>
       </c>
       <c r="D21">
-        <v>0.4610160631614155</v>
+        <v>5.178183145965789</v>
       </c>
       <c r="E21">
-        <v>0.1381971188727057</v>
+        <v>3.577301299625789</v>
       </c>
       <c r="F21">
-        <v>0.475662596687031</v>
+        <v>2.581179141198684</v>
       </c>
       <c r="G21">
-        <v>0.6245017140196639</v>
+        <v>0.8132101462021052</v>
       </c>
       <c r="H21">
-        <v>2.386402339852183</v>
+        <v>0.001370283013157895</v>
       </c>
       <c r="I21">
-        <v>0.002274229037944546</v>
+        <v>12.82462972165843</v>
       </c>
       <c r="J21">
-        <v>0.4610160631614155</v>
+        <v>5.178183145965789</v>
       </c>
       <c r="K21">
-        <v>0.4610160631614155</v>
+        <v>5.178183145965789</v>
       </c>
       <c r="L21">
-        <v>0.475662596687031</v>
+        <v>2.581179141198684</v>
       </c>
       <c r="M21">
-        <v>0.3069298577798684</v>
+        <v>3.079240220412236</v>
       </c>
       <c r="N21">
-        <v>0.3069298577798684</v>
+        <v>3.079240220412236</v>
       </c>
       <c r="O21">
-        <v>1.000087351803973</v>
+        <v>2.053283574612544</v>
       </c>
       <c r="P21">
-        <v>0.3582919262403841</v>
+        <v>3.778887862263421</v>
       </c>
       <c r="Q21">
-        <v>0.3582919262403841</v>
+        <v>3.778887862263421</v>
       </c>
       <c r="R21">
-        <v>0.3839729604706419</v>
+        <v>4.128711683189013</v>
       </c>
       <c r="S21">
-        <v>0.3839729604706419</v>
+        <v>4.128711683189013</v>
       </c>
       <c r="T21">
-        <v>0.6813423436051572</v>
+        <v>4.162645622943993</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.88377347901889</v>
+        <v>3.577255539067369</v>
       </c>
       <c r="D22">
-        <v>0.01876150673234562</v>
+        <v>5.178160577926842</v>
       </c>
       <c r="E22">
-        <v>1.88377347901889</v>
+        <v>3.577255539067369</v>
       </c>
       <c r="F22">
-        <v>1.200061392746518</v>
+        <v>2.581158208672474</v>
       </c>
       <c r="G22">
-        <v>0.3036276470584079</v>
+        <v>0.813207712042105</v>
       </c>
       <c r="H22">
-        <v>0.8012222478846385</v>
+        <v>0.001372543362631579</v>
       </c>
       <c r="I22">
-        <v>0.0654776260176899</v>
+        <v>12.82456598210579</v>
       </c>
       <c r="J22">
-        <v>0.01876150673234562</v>
+        <v>5.178160577926842</v>
       </c>
       <c r="K22">
-        <v>0.01876150673234562</v>
+        <v>5.178160577926842</v>
       </c>
       <c r="L22">
-        <v>1.200061392746518</v>
+        <v>2.581158208672474</v>
       </c>
       <c r="M22">
-        <v>1.541917435882704</v>
+        <v>3.079206873869921</v>
       </c>
       <c r="N22">
-        <v>1.541917435882704</v>
+        <v>3.079206873869921</v>
       </c>
       <c r="O22">
-        <v>1.295019039883349</v>
+        <v>2.053262097034158</v>
       </c>
       <c r="P22">
-        <v>1.034198792832584</v>
+        <v>3.778858108555562</v>
       </c>
       <c r="Q22">
-        <v>1.034198792832585</v>
+        <v>3.778858108555561</v>
       </c>
       <c r="R22">
-        <v>0.7803394713075248</v>
+        <v>4.128683725898381</v>
       </c>
       <c r="S22">
-        <v>0.7803394713075248</v>
+        <v>4.128683725898381</v>
       </c>
       <c r="T22">
-        <v>0.7121539832430818</v>
+        <v>4.162620093862868</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.01007200863557245</v>
+        <v>0.1381971188727057</v>
       </c>
       <c r="D23">
-        <v>1.645091703518941</v>
+        <v>0.4610160631614155</v>
       </c>
       <c r="E23">
-        <v>0.01007200863557245</v>
+        <v>0.1381971188727057</v>
       </c>
       <c r="F23">
-        <v>0.3479448539887881</v>
+        <v>0.475662596687031</v>
       </c>
       <c r="G23">
-        <v>1.244459221634258</v>
+        <v>0.6245017140196639</v>
       </c>
       <c r="H23">
-        <v>1.137948696465565</v>
+        <v>2.386402339852183</v>
       </c>
       <c r="I23">
-        <v>0.001600156892067721</v>
+        <v>0.002274229037944546</v>
       </c>
       <c r="J23">
-        <v>1.645091703518941</v>
+        <v>0.4610160631614155</v>
       </c>
       <c r="K23">
-        <v>1.645091703518941</v>
+        <v>0.4610160631614155</v>
       </c>
       <c r="L23">
-        <v>0.3479448539887881</v>
+        <v>0.475662596687031</v>
       </c>
       <c r="M23">
-        <v>0.1790084313121803</v>
+        <v>0.3069298577798684</v>
       </c>
       <c r="N23">
-        <v>0.1790084313121803</v>
+        <v>0.3069298577798684</v>
       </c>
       <c r="O23">
-        <v>0.4986551863633085</v>
+        <v>1.000087351803973</v>
       </c>
       <c r="P23">
-        <v>0.6677028553811007</v>
+        <v>0.3582919262403841</v>
       </c>
       <c r="Q23">
-        <v>0.6677028553811007</v>
+        <v>0.3582919262403841</v>
       </c>
       <c r="R23">
-        <v>0.9120500674155609</v>
+        <v>0.3839729604706419</v>
       </c>
       <c r="S23">
-        <v>0.9120500674155609</v>
+        <v>0.3839729604706419</v>
       </c>
       <c r="T23">
-        <v>0.7311861068558655</v>
+        <v>0.6813423436051572</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.65007259725812</v>
+        <v>1.88377347901889</v>
       </c>
       <c r="D24">
-        <v>1.928466147286326</v>
+        <v>0.01876150673234562</v>
       </c>
       <c r="E24">
-        <v>1.65007259725812</v>
+        <v>1.88377347901889</v>
       </c>
       <c r="F24">
-        <v>1.633539647079539</v>
+        <v>1.200061392746518</v>
       </c>
       <c r="G24">
-        <v>1.43629553007657</v>
+        <v>0.3036276470584079</v>
       </c>
       <c r="H24">
-        <v>0.5302853793049361</v>
+        <v>0.8012222478846385</v>
       </c>
       <c r="I24">
-        <v>0.0565668787269581</v>
+        <v>0.0654776260176899</v>
       </c>
       <c r="J24">
-        <v>1.928466147286326</v>
+        <v>0.01876150673234562</v>
       </c>
       <c r="K24">
-        <v>1.928466147286326</v>
+        <v>0.01876150673234562</v>
       </c>
       <c r="L24">
-        <v>1.633539647079539</v>
+        <v>1.200061392746518</v>
       </c>
       <c r="M24">
-        <v>1.641806122168829</v>
+        <v>1.541917435882704</v>
       </c>
       <c r="N24">
-        <v>1.641806122168829</v>
+        <v>1.541917435882704</v>
       </c>
       <c r="O24">
-        <v>1.271299207880865</v>
+        <v>1.295019039883349</v>
       </c>
       <c r="P24">
-        <v>1.737359463874661</v>
+        <v>1.034198792832584</v>
       </c>
       <c r="Q24">
-        <v>1.737359463874661</v>
+        <v>1.034198792832585</v>
       </c>
       <c r="R24">
-        <v>1.785136134727577</v>
+        <v>0.7803394713075248</v>
       </c>
       <c r="S24">
-        <v>1.785136134727577</v>
+        <v>0.7803394713075248</v>
       </c>
       <c r="T24">
-        <v>1.205871029955408</v>
+        <v>0.7121539832430818</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.1382793366769173</v>
+        <v>0.01007200863557245</v>
       </c>
       <c r="D25">
-        <v>0.4608553622930011</v>
+        <v>1.645091703518941</v>
       </c>
       <c r="E25">
-        <v>0.1382793366769173</v>
+        <v>0.01007200863557245</v>
       </c>
       <c r="F25">
-        <v>0.4756208411991519</v>
+        <v>0.3479448539887881</v>
       </c>
       <c r="G25">
-        <v>0.6244920392272626</v>
+        <v>1.244459221634258</v>
       </c>
       <c r="H25">
-        <v>2.386460561270393</v>
+        <v>1.137948696465565</v>
       </c>
       <c r="I25">
-        <v>0.002274114007736404</v>
+        <v>0.001600156892067721</v>
       </c>
       <c r="J25">
-        <v>0.4608553622930011</v>
+        <v>1.645091703518941</v>
       </c>
       <c r="K25">
-        <v>0.4608553622930011</v>
+        <v>1.645091703518941</v>
       </c>
       <c r="L25">
-        <v>0.4756208411991519</v>
+        <v>0.3479448539887881</v>
       </c>
       <c r="M25">
-        <v>0.3069500889380347</v>
+        <v>0.1790084313121803</v>
       </c>
       <c r="N25">
-        <v>0.3069500889380347</v>
+        <v>0.1790084313121803</v>
       </c>
       <c r="O25">
-        <v>1.000120246382154</v>
+        <v>0.4986551863633085</v>
       </c>
       <c r="P25">
-        <v>0.3582518467230235</v>
+        <v>0.6677028553811007</v>
       </c>
       <c r="Q25">
-        <v>0.3582518467230235</v>
+        <v>0.6677028553811007</v>
       </c>
       <c r="R25">
-        <v>0.3839027256155179</v>
+        <v>0.9120500674155609</v>
       </c>
       <c r="S25">
-        <v>0.3839027256155179</v>
+        <v>0.9120500674155609</v>
       </c>
       <c r="T25">
-        <v>0.6813303757790772</v>
+        <v>0.7311861068558655</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.883889727573684</v>
+        <v>1.65007259725812</v>
       </c>
       <c r="D26">
-        <v>0.01875996443402056</v>
+        <v>1.928466147286326</v>
       </c>
       <c r="E26">
-        <v>1.883889727573684</v>
+        <v>1.65007259725812</v>
       </c>
       <c r="F26">
-        <v>1.200023372727909</v>
+        <v>1.633539647079539</v>
       </c>
       <c r="G26">
-        <v>0.3036598064457593</v>
+        <v>1.43629553007657</v>
       </c>
       <c r="H26">
-        <v>0.8012829343572095</v>
+        <v>0.5302853793049361</v>
       </c>
       <c r="I26">
-        <v>0.06547171939151418</v>
+        <v>0.0565668787269581</v>
       </c>
       <c r="J26">
-        <v>0.01875996443402056</v>
+        <v>1.928466147286326</v>
       </c>
       <c r="K26">
-        <v>0.01875996443402056</v>
+        <v>1.928466147286326</v>
       </c>
       <c r="L26">
-        <v>1.200023372727909</v>
+        <v>1.633539647079539</v>
       </c>
       <c r="M26">
-        <v>1.541956550150796</v>
+        <v>1.641806122168829</v>
       </c>
       <c r="N26">
-        <v>1.541956550150796</v>
+        <v>1.641806122168829</v>
       </c>
       <c r="O26">
-        <v>1.295065344886267</v>
+        <v>1.271299207880865</v>
       </c>
       <c r="P26">
-        <v>1.034224354911871</v>
+        <v>1.737359463874661</v>
       </c>
       <c r="Q26">
-        <v>1.034224354911871</v>
+        <v>1.737359463874661</v>
       </c>
       <c r="R26">
-        <v>0.7803582572924085</v>
+        <v>1.785136134727577</v>
       </c>
       <c r="S26">
-        <v>0.7803582572924085</v>
+        <v>1.785136134727577</v>
       </c>
       <c r="T26">
-        <v>0.712181254155016</v>
+        <v>1.205871029955408</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>-0.004695112656998911</v>
+        <v>0.1382793366769173</v>
       </c>
       <c r="D27">
-        <v>1.093055045769141</v>
+        <v>0.4608553622930011</v>
       </c>
       <c r="E27">
-        <v>-0.004695112656998911</v>
+        <v>0.1382793366769173</v>
       </c>
       <c r="F27">
-        <v>0.002887767181093652</v>
+        <v>0.4756208411991519</v>
       </c>
       <c r="G27">
-        <v>0.03555918138088721</v>
+        <v>0.6244920392272626</v>
       </c>
       <c r="H27">
-        <v>4.961700954747911</v>
+        <v>2.386460561270393</v>
       </c>
       <c r="I27">
-        <v>20.82228311165142</v>
+        <v>0.002274114007736404</v>
       </c>
       <c r="J27">
-        <v>1.093055045769141</v>
+        <v>0.4608553622930011</v>
       </c>
       <c r="K27">
-        <v>1.093055045769141</v>
+        <v>0.4608553622930011</v>
       </c>
       <c r="L27">
-        <v>0.002887767181093652</v>
+        <v>0.4756208411991519</v>
       </c>
       <c r="M27">
-        <v>-0.0009036727379526297</v>
+        <v>0.3069500889380347</v>
       </c>
       <c r="N27">
-        <v>-0.0009036727379526297</v>
+        <v>0.3069500889380347</v>
       </c>
       <c r="O27">
-        <v>1.653297869757335</v>
+        <v>1.000120246382154</v>
       </c>
       <c r="P27">
-        <v>0.3637492334310787</v>
+        <v>0.3582518467230235</v>
       </c>
       <c r="Q27">
-        <v>0.3637492334310787</v>
+        <v>0.3582518467230235</v>
       </c>
       <c r="R27">
-        <v>0.5460756865155945</v>
+        <v>0.3839027256155179</v>
       </c>
       <c r="S27">
-        <v>0.5460756865155945</v>
+        <v>0.3839027256155179</v>
       </c>
       <c r="T27">
-        <v>4.485131824678909</v>
+        <v>0.6813303757790772</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>10.98129957440812</v>
+        <v>1.883889727573684</v>
       </c>
       <c r="D28">
-        <v>0.7676763019288487</v>
+        <v>0.01875996443402056</v>
       </c>
       <c r="E28">
-        <v>10.98129957440812</v>
+        <v>1.883889727573684</v>
       </c>
       <c r="F28">
-        <v>0.002621746776869666</v>
+        <v>1.200023372727909</v>
       </c>
       <c r="G28">
-        <v>2.306264034011368</v>
+        <v>0.3036598064457593</v>
       </c>
       <c r="H28">
-        <v>-0.002901834222248979</v>
+        <v>0.8012829343572095</v>
       </c>
       <c r="I28">
-        <v>0.2172962511975788</v>
+        <v>0.06547171939151418</v>
       </c>
       <c r="J28">
-        <v>0.7676763019288487</v>
+        <v>0.01875996443402056</v>
       </c>
       <c r="K28">
-        <v>0.7676763019288487</v>
+        <v>0.01875996443402056</v>
       </c>
       <c r="L28">
-        <v>0.002621746776869666</v>
+        <v>1.200023372727909</v>
       </c>
       <c r="M28">
-        <v>5.491960660592494</v>
+        <v>1.541956550150796</v>
       </c>
       <c r="N28">
-        <v>5.491960660592494</v>
+        <v>1.541956550150796</v>
       </c>
       <c r="O28">
-        <v>3.66033982898758</v>
+        <v>1.295065344886267</v>
       </c>
       <c r="P28">
-        <v>3.917199207704612</v>
+        <v>1.034224354911871</v>
       </c>
       <c r="Q28">
-        <v>3.917199207704612</v>
+        <v>1.034224354911871</v>
       </c>
       <c r="R28">
-        <v>3.129818481260671</v>
+        <v>0.7803582572924085</v>
       </c>
       <c r="S28">
-        <v>3.129818481260671</v>
+        <v>0.7803582572924085</v>
       </c>
       <c r="T28">
-        <v>2.378709345683423</v>
+        <v>0.712181254155016</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>-0.004695112656998911</v>
+      </c>
+      <c r="D29">
+        <v>1.093055045769141</v>
+      </c>
+      <c r="E29">
+        <v>-0.004695112656998911</v>
+      </c>
+      <c r="F29">
+        <v>0.002887767181093652</v>
+      </c>
+      <c r="G29">
+        <v>0.03555918138088721</v>
+      </c>
+      <c r="H29">
+        <v>4.961700954747911</v>
+      </c>
+      <c r="I29">
+        <v>20.82228311165142</v>
+      </c>
+      <c r="J29">
+        <v>1.093055045769141</v>
+      </c>
+      <c r="K29">
+        <v>1.093055045769141</v>
+      </c>
+      <c r="L29">
+        <v>0.002887767181093652</v>
+      </c>
+      <c r="M29">
+        <v>-0.0009036727379526297</v>
+      </c>
+      <c r="N29">
+        <v>-0.0009036727379526297</v>
+      </c>
+      <c r="O29">
+        <v>1.653297869757335</v>
+      </c>
+      <c r="P29">
+        <v>0.3637492334310787</v>
+      </c>
+      <c r="Q29">
+        <v>0.3637492334310787</v>
+      </c>
+      <c r="R29">
+        <v>0.5460756865155945</v>
+      </c>
+      <c r="S29">
+        <v>0.5460756865155945</v>
+      </c>
+      <c r="T29">
+        <v>4.485131824678909</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>10.98129957440812</v>
+      </c>
+      <c r="D30">
+        <v>0.7676763019288487</v>
+      </c>
+      <c r="E30">
+        <v>10.98129957440812</v>
+      </c>
+      <c r="F30">
+        <v>0.002621746776869666</v>
+      </c>
+      <c r="G30">
+        <v>2.306264034011368</v>
+      </c>
+      <c r="H30">
+        <v>-0.002901834222248979</v>
+      </c>
+      <c r="I30">
+        <v>0.2172962511975788</v>
+      </c>
+      <c r="J30">
+        <v>0.7676763019288487</v>
+      </c>
+      <c r="K30">
+        <v>0.7676763019288487</v>
+      </c>
+      <c r="L30">
+        <v>0.002621746776869666</v>
+      </c>
+      <c r="M30">
+        <v>5.491960660592494</v>
+      </c>
+      <c r="N30">
+        <v>5.491960660592494</v>
+      </c>
+      <c r="O30">
+        <v>3.66033982898758</v>
+      </c>
+      <c r="P30">
+        <v>3.917199207704612</v>
+      </c>
+      <c r="Q30">
+        <v>3.917199207704612</v>
+      </c>
+      <c r="R30">
+        <v>3.129818481260671</v>
+      </c>
+      <c r="S30">
+        <v>3.129818481260671</v>
+      </c>
+      <c r="T30">
+        <v>2.378709345683423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>24.17178515635653</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.726711719240725</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>24.17178515635653</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>-0.003044620529389311</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.002270452843350384</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>-0.004121546586019258</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>-0.00695400786212124</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.726711719240725</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.726711719240725</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>-0.003044620529389311</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>12.08437026791357</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>12.08437026791357</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>8.054872996413708</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>8.631817418355956</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>8.631817418355956</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>6.905540993577149</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>6.905540993577149</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>4.314441192243847</v>
       </c>
     </row>
